--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152723.6346016585</v>
+        <v>151986.1122029583</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681862</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>162.0775580960374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9394602487552</v>
+        <v>260.939460248755</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1152879740086</v>
+        <v>285.1152879740084</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1492688429796</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5689976340755</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73160841495387</v>
+        <v>62.73160841495367</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67916269171002</v>
+        <v>71.67916269170985</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47994477460615</v>
+        <v>98.479944774606</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2570343856667</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3546460159869</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3515414940223</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.82362823233461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>43.19355010381241</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.84700842086858</v>
       </c>
       <c r="D12" t="n">
-        <v>23.93384806811331</v>
+        <v>23.93384806811315</v>
       </c>
       <c r="E12" t="n">
-        <v>145.7691541370488</v>
+        <v>33.85485820064142</v>
       </c>
       <c r="F12" t="n">
-        <v>21.32765657701704</v>
+        <v>101.4329661088192</v>
       </c>
       <c r="G12" t="n">
-        <v>13.56270707968262</v>
+        <v>13.56270707968246</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S12" t="n">
-        <v>41.54635653185679</v>
+        <v>41.54635653185662</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06759025391879</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4600536910093</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1512,7 +1512,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.28305410194585</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.90511598415155</v>
+        <v>57.90511598415139</v>
       </c>
       <c r="C13" t="n">
-        <v>45.15797742467008</v>
+        <v>45.15797742466992</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8269910079871</v>
+        <v>26.82699100798695</v>
       </c>
       <c r="E13" t="n">
-        <v>24.79604866666692</v>
+        <v>24.79604866666676</v>
       </c>
       <c r="F13" t="n">
-        <v>23.98044590327224</v>
+        <v>23.98044590327208</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4746547785134</v>
+        <v>45.47465477851324</v>
       </c>
       <c r="H13" t="n">
-        <v>37.35405327628425</v>
+        <v>37.35405327628409</v>
       </c>
       <c r="I13" t="n">
-        <v>24.47202221935821</v>
+        <v>24.47202221935803</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58502799526211</v>
+        <v>40.58502799526193</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05974488593903</v>
+        <v>96.05974488593885</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1439944560724</v>
+        <v>105.1439944560722</v>
       </c>
       <c r="U13" t="n">
-        <v>163.8608025948013</v>
+        <v>163.8608025948011</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7577755604069</v>
+        <v>130.7577755604067</v>
       </c>
       <c r="W13" t="n">
-        <v>163.9140013808833</v>
+        <v>163.9140013808831</v>
       </c>
       <c r="X13" t="n">
-        <v>103.961784425777</v>
+        <v>103.9617844257768</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.57009836123596</v>
+        <v>96.57009836123581</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5378344848627</v>
+        <v>261.5378344848626</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.8065201724102</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9394602487552</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1152879740085</v>
+        <v>285.1152879740084</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>285.919544160819</v>
       </c>
       <c r="H14" t="n">
-        <v>138.7494938435251</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I14" t="n">
-        <v>62.7316084149538</v>
+        <v>62.73160841495374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269170995</v>
+        <v>71.67916269170989</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47994477460608</v>
+        <v>98.47994477460603</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
-        <v>206.354646015987</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.5084962447035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.1935501038125</v>
+        <v>43.19355010381244</v>
       </c>
       <c r="C15" t="n">
-        <v>48.84700842086866</v>
+        <v>48.8470084208686</v>
       </c>
       <c r="D15" t="n">
-        <v>58.65740710361097</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.85485820064144</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.32765657701691</v>
       </c>
       <c r="G15" t="n">
-        <v>13.56270707968255</v>
+        <v>62.72515336562427</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>197.246165760451</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6386291975415</v>
+        <v>102.4600536910091</v>
       </c>
       <c r="V15" t="n">
-        <v>109.7301555331228</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.8107712434677</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.28305410194594</v>
+        <v>82.28305410194588</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.49257591205364</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415148</v>
+        <v>57.90511598415142</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742467001</v>
+        <v>45.15797742466995</v>
       </c>
       <c r="D16" t="n">
-        <v>26.82699100798703</v>
+        <v>26.82699100798698</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666685</v>
+        <v>24.79604866666679</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327217</v>
+        <v>23.98044590327211</v>
       </c>
       <c r="G16" t="n">
-        <v>45.47465477851333</v>
+        <v>45.47465477851327</v>
       </c>
       <c r="H16" t="n">
-        <v>37.35405327628418</v>
+        <v>37.35405327628412</v>
       </c>
       <c r="I16" t="n">
-        <v>24.47202221935813</v>
+        <v>24.47202221935808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58502799526204</v>
+        <v>40.58502799526198</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05974488593895</v>
+        <v>96.0597448859389</v>
       </c>
       <c r="T16" t="n">
         <v>105.1439944560723</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8608025948012</v>
+        <v>163.8608025948011</v>
       </c>
       <c r="V16" t="n">
         <v>130.7577755604068</v>
       </c>
       <c r="W16" t="n">
-        <v>163.9140013808832</v>
+        <v>163.9140013808831</v>
       </c>
       <c r="X16" t="n">
         <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123589</v>
+        <v>96.57009836123584</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C17" t="n">
-        <v>143.4229923659884</v>
+        <v>143.4229923659885</v>
       </c>
       <c r="D17" t="n">
         <v>133.0426294416442</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.87350657924471</v>
+        <v>27.87350657924474</v>
       </c>
       <c r="V17" t="n">
         <v>104.9711182095652</v>
@@ -1910,7 +1910,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.1249684382816</v>
+        <v>163.1249684382817</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I18" t="n">
         <v>76.79682501022856</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T18" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U18" t="n">
-        <v>3.511951993321479</v>
+        <v>1.076525884587368</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>220.9074231653929</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.760466649650462</v>
+        <v>3.76046664965049</v>
       </c>
       <c r="U19" t="n">
-        <v>260.0677608529714</v>
+        <v>62.47727478837938</v>
       </c>
       <c r="V19" t="n">
-        <v>29.37424775398497</v>
+        <v>29.374247753985</v>
       </c>
       <c r="W19" t="n">
-        <v>62.53047357446135</v>
+        <v>62.53047357446138</v>
       </c>
       <c r="X19" t="n">
-        <v>2.578256619355074</v>
+        <v>2.578256619355102</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>65.49331091842126</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C20" t="n">
-        <v>143.4229923659884</v>
+        <v>143.4229923659879</v>
       </c>
       <c r="D20" t="n">
         <v>133.0426294416442</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.87350657924471</v>
+        <v>27.87350657924474</v>
       </c>
       <c r="V20" t="n">
         <v>104.9711182095652</v>
@@ -2147,7 +2147,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.1249684382816</v>
+        <v>163.1249684382817</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>15.56613048677162</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -2172,10 +2172,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I21" t="n">
         <v>76.79682501022856</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S21" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
-        <v>1.076525884587339</v>
+        <v>1.076525884587368</v>
       </c>
       <c r="V21" t="n">
-        <v>8.346627726700945</v>
+        <v>8.346627726700973</v>
       </c>
       <c r="W21" t="n">
-        <v>209.9684441030271</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>48.58491955007263</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.760466649650462</v>
+        <v>3.76046664965049</v>
       </c>
       <c r="U22" t="n">
-        <v>62.47727478837935</v>
+        <v>62.47727478837938</v>
       </c>
       <c r="V22" t="n">
-        <v>77.95916730405767</v>
+        <v>29.374247753985</v>
       </c>
       <c r="W22" t="n">
-        <v>62.53047357446135</v>
+        <v>62.53047357446138</v>
       </c>
       <c r="X22" t="n">
-        <v>2.578256619355074</v>
+        <v>2.578256619355102</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C23" t="n">
-        <v>143.4229923659884</v>
+        <v>143.4229923659885</v>
       </c>
       <c r="D23" t="n">
         <v>133.0426294416442</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.87350657924472</v>
+        <v>27.87350657924474</v>
       </c>
       <c r="V23" t="n">
         <v>104.9711182095652</v>
@@ -2384,7 +2384,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.1249684382816</v>
+        <v>163.1249684382817</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>97.26461197910089</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>65.12013979812428</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V24" t="n">
-        <v>8.346627726700945</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>51.43146465478738</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.96888642430409</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.760466649650462</v>
+        <v>3.760466649650491</v>
       </c>
       <c r="U25" t="n">
-        <v>62.47727478837935</v>
+        <v>62.47727478837938</v>
       </c>
       <c r="V25" t="n">
-        <v>29.37424775398497</v>
+        <v>29.374247753985</v>
       </c>
       <c r="W25" t="n">
-        <v>62.53047357446135</v>
+        <v>62.53047357446138</v>
       </c>
       <c r="X25" t="n">
-        <v>140.1998562596431</v>
+        <v>2.578256619355102</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D26" t="n">
-        <v>214.5378170691621</v>
+        <v>214.537817069162</v>
       </c>
       <c r="E26" t="n">
         <v>241.0511200698511</v>
@@ -2573,7 +2573,7 @@
         <v>190.6806574551713</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84326823604977</v>
+        <v>42.84326823604974</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.79082251280593</v>
+        <v>51.7908225128059</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570207</v>
+        <v>78.59160459570204</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3686942067626</v>
+        <v>109.3686942067625</v>
       </c>
       <c r="V26" t="n">
         <v>186.466305837083</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4632013151183</v>
+        <v>208.4632013151182</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7946834457331</v>
+        <v>228.794683445733</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6201560657995</v>
+        <v>244.6201560657994</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>87.69719473121231</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.6580163529527</v>
+        <v>73.21124660250578</v>
       </c>
       <c r="T27" t="n">
-        <v>55.17925007501471</v>
+        <v>55.17925007501469</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6386291975415</v>
+        <v>82.57171351210516</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>89.84181535421877</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.01677580524748</v>
+        <v>38.01677580524745</v>
       </c>
       <c r="C28" t="n">
-        <v>25.26963724576601</v>
+        <v>25.26963724576598</v>
       </c>
       <c r="D28" t="n">
-        <v>6.938650829083031</v>
+        <v>6.938650829083002</v>
       </c>
       <c r="E28" t="n">
-        <v>4.907708487762847</v>
+        <v>4.907708487762818</v>
       </c>
       <c r="F28" t="n">
-        <v>4.092105724368167</v>
+        <v>4.092105724368139</v>
       </c>
       <c r="G28" t="n">
-        <v>25.58631459960932</v>
+        <v>25.5863145996093</v>
       </c>
       <c r="H28" t="n">
-        <v>17.46571309738017</v>
+        <v>17.46571309738015</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454121</v>
+        <v>4.583682040454094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.69668781635802</v>
+        <v>20.69668781635799</v>
       </c>
       <c r="S28" t="n">
-        <v>76.17140470703494</v>
+        <v>76.17140470703492</v>
       </c>
       <c r="T28" t="n">
-        <v>85.25565427716832</v>
+        <v>85.25565427716829</v>
       </c>
       <c r="U28" t="n">
         <v>143.9724624158972</v>
@@ -2776,10 +2776,10 @@
         <v>144.0256612019792</v>
       </c>
       <c r="X28" t="n">
-        <v>84.07344424687292</v>
+        <v>84.0734442468729</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.68175818233189</v>
+        <v>76.68175818233186</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>214.5378170691621</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0511200698512</v>
+        <v>241.0511200698511</v>
       </c>
       <c r="F29" t="n">
         <v>265.2269477951045</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2609286640755</v>
+        <v>272.2609286640754</v>
       </c>
       <c r="H29" t="n">
         <v>190.6806574551714</v>
       </c>
       <c r="I29" t="n">
-        <v>42.84326823604979</v>
+        <v>42.84326823604977</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.79082251280596</v>
+        <v>51.79082251280593</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570209</v>
+        <v>78.59160459570207</v>
       </c>
       <c r="U29" t="n">
         <v>109.3686942067626</v>
@@ -2883,7 +2883,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>87.69719473121272</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T30" t="n">
-        <v>65.68570790531722</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U30" t="n">
-        <v>82.57171351210522</v>
+        <v>82.57171351210519</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>107.9224310645637</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.01677580524751</v>
+        <v>38.01677580524748</v>
       </c>
       <c r="C31" t="n">
-        <v>25.26963724576603</v>
+        <v>25.26963724576601</v>
       </c>
       <c r="D31" t="n">
-        <v>6.938650829083059</v>
+        <v>6.938650829083031</v>
       </c>
       <c r="E31" t="n">
-        <v>4.907708487762875</v>
+        <v>4.907708487762847</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092105724368196</v>
+        <v>4.092105724368167</v>
       </c>
       <c r="G31" t="n">
-        <v>25.58631459960935</v>
+        <v>25.58631459960932</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4657130973802</v>
+        <v>17.46571309738017</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454149</v>
+        <v>4.583682040454122</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.69668781635805</v>
+        <v>20.69668781635802</v>
       </c>
       <c r="S31" t="n">
-        <v>76.17140470703497</v>
+        <v>76.17140470703495</v>
       </c>
       <c r="T31" t="n">
-        <v>85.25565427716835</v>
+        <v>85.25565427716832</v>
       </c>
       <c r="U31" t="n">
         <v>143.9724624158972</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8694353815029</v>
+        <v>110.8694353815028</v>
       </c>
       <c r="W31" t="n">
         <v>144.0256612019792</v>
       </c>
       <c r="X31" t="n">
-        <v>84.07344424687295</v>
+        <v>84.07344424687292</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.68175818233192</v>
+        <v>76.68175818233189</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>51.79082251280596</v>
       </c>
       <c r="T32" t="n">
-        <v>78.59160459570209</v>
+        <v>78.59160459570211</v>
       </c>
       <c r="U32" t="n">
         <v>109.3686942067626</v>
@@ -3114,19 +3114,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.96651802173753</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.439316398112993</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.724932038389</v>
+        <v>66.88561350328381</v>
       </c>
       <c r="T33" t="n">
-        <v>142.8764448062274</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U33" t="n">
-        <v>82.57171351210522</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3205,7 +3205,7 @@
         <v>17.4657130973802</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454149</v>
+        <v>4.583682040454151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>20.69668781635805</v>
       </c>
       <c r="S34" t="n">
-        <v>76.17140470703497</v>
+        <v>76.17140470703498</v>
       </c>
       <c r="T34" t="n">
         <v>85.25565427716835</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>6.379922509616576</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386291975415</v>
+        <v>147.9847537125851</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.96888642430409</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7060366698866</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.6749230941906</v>
       </c>
       <c r="T37" t="n">
         <v>4.143579243730736</v>
@@ -3582,7 +3582,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S39" t="n">
-        <v>26.30503885177769</v>
+        <v>100.2147695361074</v>
       </c>
       <c r="T39" t="n">
         <v>197.246165760451</v>
@@ -3645,7 +3645,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.5326287828165</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.12828872186662</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.96888642430409</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>36.14229431137409</v>
       </c>
       <c r="T40" t="n">
-        <v>67.72132719175069</v>
+        <v>4.143579243730736</v>
       </c>
       <c r="U40" t="n">
         <v>62.86038738245963</v>
@@ -3740,10 +3740,10 @@
         <v>163.0578897102567</v>
       </c>
       <c r="C41" t="n">
-        <v>146.3265753978042</v>
+        <v>146.3265753978043</v>
       </c>
       <c r="D41" t="n">
-        <v>135.94621247346</v>
+        <v>135.9462124734601</v>
       </c>
       <c r="E41" t="n">
         <v>162.4595154741491</v>
@@ -3752,10 +3752,10 @@
         <v>186.6353431994025</v>
       </c>
       <c r="G41" t="n">
-        <v>193.6693240683734</v>
+        <v>193.6693240683735</v>
       </c>
       <c r="H41" t="n">
-        <v>112.0890528594693</v>
+        <v>112.0890528594694</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106051</v>
+        <v>30.77708961106057</v>
       </c>
       <c r="V41" t="n">
         <v>107.874701241381</v>
       </c>
       <c r="W41" t="n">
-        <v>129.8715967194162</v>
+        <v>129.8715967194163</v>
       </c>
       <c r="X41" t="n">
-        <v>150.203078850031</v>
+        <v>150.2030788500311</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0285514700974</v>
+        <v>166.0285514700975</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3819,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7396882560888</v>
+        <v>12.03337030119028</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S42" t="n">
         <v>163.724932038389</v>
@@ -3873,13 +3873,13 @@
         <v>197.246165760451</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386291975415</v>
+        <v>3.980108916403195</v>
       </c>
       <c r="V42" t="n">
-        <v>12.02338002452664</v>
+        <v>11.2502107585168</v>
       </c>
       <c r="W42" t="n">
-        <v>29.33082646886166</v>
+        <v>29.33082646886172</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>36.91354949570817</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.0725709055129</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466262</v>
+        <v>6.664049681466318</v>
       </c>
       <c r="U43" t="n">
-        <v>65.38085782019516</v>
+        <v>65.38085782019522</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27783078580077</v>
+        <v>32.27783078580083</v>
       </c>
       <c r="W43" t="n">
-        <v>65.43405660627715</v>
+        <v>65.43405660627721</v>
       </c>
       <c r="X43" t="n">
-        <v>5.481839651170873</v>
+        <v>5.48183965117093</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0578897102567</v>
+        <v>163.0578897102566</v>
       </c>
       <c r="C44" t="n">
-        <v>146.3265753978043</v>
+        <v>146.3265753978042</v>
       </c>
       <c r="D44" t="n">
-        <v>135.9462124734601</v>
+        <v>135.94621247346</v>
       </c>
       <c r="E44" t="n">
-        <v>162.4595154741491</v>
+        <v>162.459515474149</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6353431994025</v>
+        <v>186.6353431994024</v>
       </c>
       <c r="G44" t="n">
-        <v>193.6693240683735</v>
+        <v>193.6693240683734</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0890528594694</v>
+        <v>112.0890528594693</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77708961106057</v>
+        <v>30.77708961106049</v>
       </c>
       <c r="V44" t="n">
-        <v>107.874701241381</v>
+        <v>107.8747012413809</v>
       </c>
       <c r="W44" t="n">
-        <v>129.8715967194163</v>
+        <v>129.8715967194162</v>
       </c>
       <c r="X44" t="n">
-        <v>150.2030788500311</v>
+        <v>150.203078850031</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0285514700975</v>
+        <v>166.0285514700974</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4065,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>8.878164438663994</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U45" t="n">
-        <v>3.980108916403195</v>
+        <v>3.98010891640311</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>11.25021075851672</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>77.52465248819422</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>15.73601797431037</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.664049681466318</v>
+        <v>6.664049681466233</v>
       </c>
       <c r="U46" t="n">
-        <v>65.38085782019522</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27783078580083</v>
+        <v>215.3504016913138</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43405660627721</v>
+        <v>65.43405660627712</v>
       </c>
       <c r="X46" t="n">
-        <v>5.48183965117093</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5024,31 +5024,31 @@
         <v>1156.747525609502</v>
       </c>
       <c r="E11" t="n">
-        <v>893.1723132370223</v>
+        <v>893.1723132370222</v>
       </c>
       <c r="F11" t="n">
         <v>605.1770728592359</v>
       </c>
       <c r="G11" t="n">
-        <v>310.0768013006706</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="H11" t="n">
-        <v>97.38084409453415</v>
+        <v>97.38084409453396</v>
       </c>
       <c r="I11" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J11" t="n">
-        <v>72.99365786263581</v>
+        <v>72.9936578626349</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6481166474519</v>
+        <v>260.6481166474512</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4191444354854</v>
+        <v>545.4191444354848</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4940762105009</v>
+        <v>877.4940762105005</v>
       </c>
       <c r="N11" t="n">
         <v>1199.425152563019</v>
@@ -5066,25 +5066,25 @@
         <v>1700.779153466411</v>
       </c>
       <c r="S11" t="n">
-        <v>1628.37595882832</v>
+        <v>1628.375958828321</v>
       </c>
       <c r="T11" t="n">
-        <v>1528.901267136799</v>
+        <v>1528.9012671368</v>
       </c>
       <c r="U11" t="n">
-        <v>1398.338606141176</v>
+        <v>1528.9012671368</v>
       </c>
       <c r="V11" t="n">
-        <v>1398.338606141176</v>
+        <v>1320.462230757015</v>
       </c>
       <c r="W11" t="n">
-        <v>1167.680483419941</v>
+        <v>1320.462230757015</v>
       </c>
       <c r="X11" t="n">
-        <v>1167.680483419941</v>
+        <v>1320.462230757015</v>
       </c>
       <c r="Y11" t="n">
-        <v>1156.747525609502</v>
+        <v>1320.462230757015</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>413.4286636645431</v>
+        <v>335.4582223504933</v>
       </c>
       <c r="C12" t="n">
-        <v>240.6755485863603</v>
+        <v>286.1178098041614</v>
       </c>
       <c r="D12" t="n">
-        <v>216.499944477155</v>
+        <v>261.9422056949562</v>
       </c>
       <c r="E12" t="n">
-        <v>69.25837464175213</v>
+        <v>227.7453792296618</v>
       </c>
       <c r="F12" t="n">
-        <v>47.71528719021976</v>
+        <v>125.287837705602</v>
       </c>
       <c r="G12" t="n">
-        <v>34.01558306932822</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="H12" t="n">
-        <v>34.01558306932822</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J12" t="n">
-        <v>39.54352236358514</v>
+        <v>67.77851149822688</v>
       </c>
       <c r="K12" t="n">
-        <v>223.8553579609741</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L12" t="n">
-        <v>532.5349733781202</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M12" t="n">
-        <v>945.5497191677899</v>
+        <v>576.8756943603787</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.492559650727</v>
+        <v>997.8185348433155</v>
       </c>
       <c r="O12" t="n">
-        <v>1700.779153466411</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P12" t="n">
-        <v>1700.779153466411</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q12" t="n">
         <v>1700.779153466411</v>
       </c>
       <c r="R12" t="n">
-        <v>1700.779153466411</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S12" t="n">
-        <v>1658.813136767566</v>
+        <v>1580.842695453515</v>
       </c>
       <c r="T12" t="n">
-        <v>1582.987288026234</v>
+        <v>1381.604144180333</v>
       </c>
       <c r="U12" t="n">
-        <v>1479.492284297942</v>
+        <v>1154.69643792019</v>
       </c>
       <c r="V12" t="n">
-        <v>1245.241040823542</v>
+        <v>920.4451944457905</v>
       </c>
       <c r="W12" t="n">
-        <v>992.7265491568756</v>
+        <v>667.9307027791239</v>
       </c>
       <c r="X12" t="n">
-        <v>786.1996505624531</v>
+        <v>584.8165067165523</v>
       </c>
       <c r="Y12" t="n">
-        <v>580.4712147861036</v>
+        <v>379.0880709402028</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.3814348640274</v>
+        <v>264.3814348640263</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7673162532496</v>
+        <v>218.7673162532486</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6693455381111</v>
+        <v>191.6693455381103</v>
       </c>
       <c r="E13" t="n">
-        <v>166.622831733397</v>
+        <v>166.6228317333964</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4001591038291</v>
+        <v>142.4001591038286</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805798</v>
+        <v>96.46616437805764</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73479743231631</v>
+        <v>58.73479743231614</v>
       </c>
       <c r="I13" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J13" t="n">
-        <v>83.56536698614718</v>
+        <v>83.56536698614738</v>
       </c>
       <c r="K13" t="n">
-        <v>217.0814624720373</v>
+        <v>217.0814624720364</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9134546823791</v>
+        <v>409.9134546823784</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2454674020855</v>
+        <v>617.2454674020851</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725636</v>
+        <v>827.6649322725634</v>
       </c>
       <c r="O13" t="n">
         <v>1015.918385894575</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.236616050935</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.82420824234</v>
+        <v>1232.824208242338</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.829230469348</v>
+        <v>1191.829230469346</v>
       </c>
       <c r="S13" t="n">
-        <v>1094.799185130016</v>
+        <v>1094.799185130013</v>
       </c>
       <c r="T13" t="n">
-        <v>988.593130123882</v>
+        <v>988.5931301238799</v>
       </c>
       <c r="U13" t="n">
-        <v>823.077167906911</v>
+        <v>823.077167906909</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9986067347828</v>
+        <v>690.998606734781</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4289083702542</v>
+        <v>525.4289083702525</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4170049098734</v>
+        <v>420.4170049098719</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8714510096351</v>
+        <v>322.8714510096337</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>789.1023007271491</v>
+        <v>1134.158975348386</v>
       </c>
       <c r="C14" t="n">
-        <v>789.1023007271491</v>
+        <v>886.8796620429212</v>
       </c>
       <c r="D14" t="n">
-        <v>789.1023007271491</v>
+        <v>886.8796620429212</v>
       </c>
       <c r="E14" t="n">
-        <v>525.5270883546691</v>
+        <v>886.8796620429212</v>
       </c>
       <c r="F14" t="n">
-        <v>237.5318479768827</v>
+        <v>598.8844216651343</v>
       </c>
       <c r="G14" t="n">
-        <v>237.5318479768827</v>
+        <v>310.0768013006706</v>
       </c>
       <c r="H14" t="n">
-        <v>97.38084409453408</v>
+        <v>97.38084409453404</v>
       </c>
       <c r="I14" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J14" t="n">
-        <v>77.63744688178869</v>
+        <v>77.6374468817887</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2919056666047</v>
+        <v>265.2919056666048</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0629334546381</v>
+        <v>550.0629334546383</v>
       </c>
       <c r="M14" t="n">
         <v>882.1378652296537</v>
@@ -5291,10 +5291,10 @@
         <v>1204.068941582172</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.930976728513</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P14" t="n">
-        <v>1645.071464708881</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q14" t="n">
         <v>1700.779153466411</v>
@@ -5303,25 +5303,25 @@
         <v>1700.779153466411</v>
       </c>
       <c r="S14" t="n">
-        <v>1628.37595882832</v>
+        <v>1628.375958828321</v>
       </c>
       <c r="T14" t="n">
         <v>1528.901267136799</v>
       </c>
       <c r="U14" t="n">
-        <v>1528.901267136799</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="V14" t="n">
-        <v>1320.462230757014</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="W14" t="n">
-        <v>1320.462230757014</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="X14" t="n">
-        <v>1320.462230757014</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="Y14" t="n">
-        <v>1053.28193151994</v>
+        <v>1398.338606141177</v>
       </c>
     </row>
     <row r="15">
@@ -5331,55 +5331,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>458.8709248823437</v>
+        <v>458.8709248823441</v>
       </c>
       <c r="C15" t="n">
-        <v>409.5305123360117</v>
+        <v>409.5305123360121</v>
       </c>
       <c r="D15" t="n">
-        <v>350.2806061707481</v>
+        <v>261.942205694956</v>
       </c>
       <c r="E15" t="n">
-        <v>192.6710771736028</v>
+        <v>227.7453792296616</v>
       </c>
       <c r="F15" t="n">
-        <v>47.71528719021969</v>
+        <v>206.2022917781293</v>
       </c>
       <c r="G15" t="n">
-        <v>34.01558306932822</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H15" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J15" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K15" t="n">
-        <v>34.01558306932822</v>
+        <v>218.3274186667172</v>
       </c>
       <c r="L15" t="n">
-        <v>163.8609485707091</v>
+        <v>527.0070340838633</v>
       </c>
       <c r="M15" t="n">
-        <v>576.8756943603788</v>
+        <v>940.0217798735331</v>
       </c>
       <c r="N15" t="n">
-        <v>997.8185348433155</v>
+        <v>1360.96462035647</v>
       </c>
       <c r="O15" t="n">
-        <v>1332.105128659</v>
+        <v>1695.251214172154</v>
       </c>
       <c r="P15" t="n">
-        <v>1583.973050344103</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q15" t="n">
         <v>1700.779153466411</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.80871215236</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S15" t="n">
         <v>1457.429992921665</v>
@@ -5388,19 +5388,19 @@
         <v>1258.191441648482</v>
       </c>
       <c r="U15" t="n">
-        <v>1031.283735388339</v>
+        <v>1154.69643792019</v>
       </c>
       <c r="V15" t="n">
-        <v>920.4451944457904</v>
+        <v>920.4451944457905</v>
       </c>
       <c r="W15" t="n">
-        <v>791.3434053109745</v>
+        <v>667.9307027791239</v>
       </c>
       <c r="X15" t="n">
-        <v>708.2292092484029</v>
+        <v>584.8165067165522</v>
       </c>
       <c r="Y15" t="n">
-        <v>502.5007734720533</v>
+        <v>502.5007734720536</v>
       </c>
     </row>
     <row r="16">
@@ -5416,43 +5416,43 @@
         <v>218.7673162532488</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381103</v>
+        <v>191.6693455381105</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6228317333964</v>
+        <v>166.6228317333965</v>
       </c>
       <c r="F16" t="n">
         <v>142.4001591038285</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46616437805784</v>
+        <v>96.46616437805773</v>
       </c>
       <c r="H16" t="n">
-        <v>58.73479743231624</v>
+        <v>58.73479743231618</v>
       </c>
       <c r="I16" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J16" t="n">
-        <v>83.56536698614724</v>
+        <v>83.5653669861473</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0814624720379</v>
+        <v>217.0814624720376</v>
       </c>
       <c r="L16" t="n">
-        <v>409.91345468238</v>
+        <v>409.9134546823795</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2454674020864</v>
+        <v>617.245467402086</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6649322725648</v>
+        <v>827.6649322725643</v>
       </c>
       <c r="O16" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.236616050933</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.824208242338</v>
@@ -5464,10 +5464,10 @@
         <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238805</v>
+        <v>988.5931301238803</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0771679069096</v>
+        <v>823.0771679069095</v>
       </c>
       <c r="V16" t="n">
         <v>690.9986067347814</v>
@@ -5476,7 +5476,7 @@
         <v>525.428908370253</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098724</v>
+        <v>420.4170049098723</v>
       </c>
       <c r="Y16" t="n">
         <v>322.8714510096341</v>
@@ -5492,40 +5492,40 @@
         <v>963.0100530509079</v>
       </c>
       <c r="C17" t="n">
-        <v>818.1383435903135</v>
+        <v>818.1383435903133</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048143</v>
+        <v>683.7518492048142</v>
       </c>
       <c r="E17" t="n">
-        <v>522.5842406772049</v>
+        <v>522.5842406772048</v>
       </c>
       <c r="F17" t="n">
-        <v>336.996604144289</v>
+        <v>336.9966041442889</v>
       </c>
       <c r="G17" t="n">
         <v>144.3039364305944</v>
       </c>
       <c r="H17" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I17" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J17" t="n">
-        <v>77.63744688178878</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K17" t="n">
-        <v>260.648116647451</v>
+        <v>260.6481166474512</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4191444354847</v>
+        <v>545.4191444354848</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4940762105003</v>
+        <v>877.4940762105005</v>
       </c>
       <c r="N17" t="n">
-        <v>1199.425152563018</v>
+        <v>1199.425152563019</v>
       </c>
       <c r="O17" t="n">
         <v>1457.28718770936</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>431.9295553039496</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="C18" t="n">
-        <v>259.1764402257668</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="D18" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="E18" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="F18" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="G18" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="H18" t="n">
         <v>111.5881335847106</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J18" t="n">
-        <v>34.01558306932822</v>
+        <v>67.77851149822688</v>
       </c>
       <c r="K18" t="n">
-        <v>34.01558306932822</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L18" t="n">
-        <v>342.6951984864745</v>
+        <v>415.7288702558116</v>
       </c>
       <c r="M18" t="n">
-        <v>755.7099442761444</v>
+        <v>828.7436160454815</v>
       </c>
       <c r="N18" t="n">
-        <v>1176.652784759081</v>
+        <v>1249.686456528418</v>
       </c>
       <c r="O18" t="n">
-        <v>1510.939378574766</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="P18" t="n">
-        <v>1700.779153466411</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q18" t="n">
         <v>1700.779153466411</v>
       </c>
       <c r="R18" t="n">
-        <v>1700.779153466411</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.779153466411</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T18" t="n">
-        <v>1501.540602193228</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U18" t="n">
-        <v>1497.993175937348</v>
+        <v>1257.10404176506</v>
       </c>
       <c r="V18" t="n">
-        <v>1263.741932462949</v>
+        <v>1022.852798290661</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.227440796282</v>
+        <v>799.7139870124863</v>
       </c>
       <c r="X18" t="n">
-        <v>804.7005422018595</v>
+        <v>593.1870884180638</v>
       </c>
       <c r="Y18" t="n">
-        <v>598.97210642551</v>
+        <v>387.4586526417143</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="C19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="D19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="E19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="F19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="G19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="H19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="I19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
       <c r="J19" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K19" t="n">
-        <v>46.57488880375149</v>
+        <v>46.57488880375151</v>
       </c>
       <c r="L19" t="n">
-        <v>118.4500912626264</v>
+        <v>118.4500912626265</v>
       </c>
       <c r="M19" t="n">
         <v>204.825314230866</v>
       </c>
       <c r="N19" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.9460936253113</v>
+        <v>335.3714608734891</v>
       </c>
       <c r="R19" t="n">
-        <v>395.9460936253113</v>
+        <v>335.3714608734891</v>
       </c>
       <c r="S19" t="n">
-        <v>395.9460936253113</v>
+        <v>335.3714608734891</v>
       </c>
       <c r="T19" t="n">
-        <v>392.1476424640483</v>
+        <v>331.5730097122259</v>
       </c>
       <c r="U19" t="n">
-        <v>129.4529345317539</v>
+        <v>268.4646513401256</v>
       </c>
       <c r="V19" t="n">
-        <v>99.78197720449634</v>
+        <v>238.793694012868</v>
       </c>
       <c r="W19" t="n">
-        <v>36.6198826848384</v>
+        <v>175.63159949321</v>
       </c>
       <c r="X19" t="n">
-        <v>34.01558306932822</v>
+        <v>173.0272998776998</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.01558306932822</v>
+        <v>106.872440364143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.010053050908</v>
+        <v>963.0100530509081</v>
       </c>
       <c r="C20" t="n">
-        <v>818.1383435903136</v>
+        <v>818.1383435903143</v>
       </c>
       <c r="D20" t="n">
-        <v>683.7518492048144</v>
+        <v>683.7518492048151</v>
       </c>
       <c r="E20" t="n">
-        <v>522.5842406772051</v>
+        <v>522.5842406772057</v>
       </c>
       <c r="F20" t="n">
-        <v>336.9966041442893</v>
+        <v>336.9966041442898</v>
       </c>
       <c r="G20" t="n">
         <v>144.3039364305944</v>
       </c>
       <c r="H20" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I20" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J20" t="n">
-        <v>77.63744688178878</v>
+        <v>72.9936578626349</v>
       </c>
       <c r="K20" t="n">
-        <v>265.291905666605</v>
+        <v>260.6481166474512</v>
       </c>
       <c r="L20" t="n">
-        <v>550.0629334546386</v>
+        <v>545.4191444354848</v>
       </c>
       <c r="M20" t="n">
-        <v>882.1378652296542</v>
+        <v>877.4940762105005</v>
       </c>
       <c r="N20" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563019</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.930976728513</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P20" t="n">
         <v>1640.427675689728</v>
@@ -5786,10 +5786,10 @@
         <v>1672.624096315659</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.592663780744</v>
+        <v>1566.592663780745</v>
       </c>
       <c r="W20" t="n">
-        <v>1438.34214490438</v>
+        <v>1438.342144904381</v>
       </c>
       <c r="X20" t="n">
         <v>1289.554775391032</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>734.4948742844781</v>
+        <v>980.4352488726636</v>
       </c>
       <c r="C21" t="n">
-        <v>561.7417592062952</v>
+        <v>807.6821337944807</v>
       </c>
       <c r="D21" t="n">
-        <v>414.153452565239</v>
+        <v>660.0938271534246</v>
       </c>
       <c r="E21" t="n">
-        <v>256.5439235680938</v>
+        <v>502.4842981562794</v>
       </c>
       <c r="F21" t="n">
-        <v>111.5881335847106</v>
+        <v>357.5285081728962</v>
       </c>
       <c r="G21" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="H21" t="n">
         <v>111.5881335847106</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J21" t="n">
-        <v>67.77851149822686</v>
+        <v>67.77851149822688</v>
       </c>
       <c r="K21" t="n">
-        <v>252.0903470956158</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L21" t="n">
-        <v>560.769962512762</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7847083024319</v>
+        <v>665.1050928852858</v>
       </c>
       <c r="N21" t="n">
-        <v>997.8185348433153</v>
+        <v>997.8185348433155</v>
       </c>
       <c r="O21" t="n">
         <v>1332.105128659</v>
@@ -5853,28 +5853,28 @@
         <v>1700.779153466411</v>
       </c>
       <c r="R21" t="n">
-        <v>1700.779153466411</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S21" t="n">
-        <v>1535.400434235715</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T21" t="n">
-        <v>1535.400434235715</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U21" t="n">
-        <v>1534.313034352294</v>
+        <v>1257.10404176506</v>
       </c>
       <c r="V21" t="n">
-        <v>1525.882097254616</v>
+        <v>1248.673104667382</v>
       </c>
       <c r="W21" t="n">
-        <v>1313.792759776811</v>
+        <v>996.1586130007157</v>
       </c>
       <c r="X21" t="n">
-        <v>1107.265861182388</v>
+        <v>996.1586130007157</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.5374254060386</v>
+        <v>996.1586130007157</v>
       </c>
     </row>
     <row r="22">
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.5262563163175</v>
+        <v>233.6019326295222</v>
       </c>
       <c r="C22" t="n">
-        <v>184.5262563163175</v>
+        <v>233.6019326295222</v>
       </c>
       <c r="D22" t="n">
-        <v>34.01558306932822</v>
+        <v>83.09125938253291</v>
       </c>
       <c r="E22" t="n">
-        <v>34.01558306932822</v>
+        <v>83.09125938253291</v>
       </c>
       <c r="F22" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="G22" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="H22" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I22" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J22" t="n">
-        <v>34.01558306932822</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K22" t="n">
-        <v>46.57488880375149</v>
+        <v>46.57488880375151</v>
       </c>
       <c r="L22" t="n">
-        <v>118.4500912626264</v>
+        <v>118.4500912626265</v>
       </c>
       <c r="M22" t="n">
         <v>204.825314230866</v>
       </c>
       <c r="N22" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T22" t="n">
         <v>392.1476424640483</v>
@@ -5944,16 +5944,16 @@
         <v>329.0392840919479</v>
       </c>
       <c r="V22" t="n">
-        <v>250.2926504514856</v>
+        <v>299.3683267646903</v>
       </c>
       <c r="W22" t="n">
-        <v>187.1305559318276</v>
+        <v>236.2062322450324</v>
       </c>
       <c r="X22" t="n">
-        <v>184.5262563163175</v>
+        <v>233.6019326295222</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.5262563163175</v>
+        <v>233.6019326295222</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509073</v>
+        <v>963.0100530509079</v>
       </c>
       <c r="C23" t="n">
-        <v>818.138343590313</v>
+        <v>818.1383435903135</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048139</v>
+        <v>683.7518492048143</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772044</v>
+        <v>522.5842406772049</v>
       </c>
       <c r="F23" t="n">
-        <v>336.9966041442885</v>
+        <v>336.996604144289</v>
       </c>
       <c r="G23" t="n">
         <v>144.3039364305944</v>
       </c>
       <c r="H23" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I23" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J23" t="n">
-        <v>77.63744688178875</v>
+        <v>72.99365786263508</v>
       </c>
       <c r="K23" t="n">
-        <v>265.291905666605</v>
+        <v>260.6481166474513</v>
       </c>
       <c r="L23" t="n">
-        <v>550.0629334546386</v>
+        <v>545.4191444354849</v>
       </c>
       <c r="M23" t="n">
-        <v>882.1378652296542</v>
+        <v>877.4940762105006</v>
       </c>
       <c r="N23" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563019</v>
       </c>
       <c r="O23" t="n">
-        <v>1461.930976728513</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P23" t="n">
-        <v>1645.071464708881</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.624096315658</v>
+        <v>1672.624096315659</v>
       </c>
       <c r="V23" t="n">
-        <v>1566.592663780744</v>
+        <v>1566.592663780745</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.34214490438</v>
+        <v>1438.342144904381</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.554775391031</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y23" t="n">
-        <v>1124.782079998827</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.9223237690956</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="C24" t="n">
-        <v>484.1692086909127</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="D24" t="n">
-        <v>336.5809020498566</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9713730527113</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="F24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="G24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="H24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J24" t="n">
-        <v>34.0155830693282</v>
+        <v>67.77851149822686</v>
       </c>
       <c r="K24" t="n">
-        <v>34.0155830693282</v>
+        <v>252.0903470956158</v>
       </c>
       <c r="L24" t="n">
-        <v>342.6951984864745</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M24" t="n">
-        <v>755.7099442761444</v>
+        <v>973.7847083024319</v>
       </c>
       <c r="N24" t="n">
-        <v>1114.624637965623</v>
+        <v>1114.624637965624</v>
       </c>
       <c r="O24" t="n">
-        <v>1448.911231781307</v>
+        <v>1448.911231781309</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q24" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.808712152359</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.808712152359</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T24" t="n">
-        <v>1557.030793164355</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U24" t="n">
-        <v>1330.123086904212</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V24" t="n">
-        <v>1321.692149806534</v>
+        <v>797.0324919139396</v>
       </c>
       <c r="W24" t="n">
-        <v>1069.177658139868</v>
+        <v>544.5180002472729</v>
       </c>
       <c r="X24" t="n">
-        <v>862.6507595454451</v>
+        <v>337.9911016528504</v>
       </c>
       <c r="Y24" t="n">
-        <v>656.9223237690956</v>
+        <v>132.2626658765008</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="C25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="D25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="E25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="F25" t="n">
-        <v>34.0155830693282</v>
+        <v>85.96655746810336</v>
       </c>
       <c r="G25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="H25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="I25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932823</v>
       </c>
       <c r="K25" t="n">
-        <v>46.57488880375147</v>
+        <v>46.57488880375149</v>
       </c>
       <c r="L25" t="n">
         <v>118.4500912626264</v>
@@ -6166,31 +6166,31 @@
         <v>395.9460936253113</v>
       </c>
       <c r="Q25" t="n">
-        <v>335.371460873489</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="R25" t="n">
-        <v>335.371460873489</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="S25" t="n">
-        <v>335.371460873489</v>
+        <v>395.9460936253113</v>
       </c>
       <c r="T25" t="n">
-        <v>331.5730097122259</v>
+        <v>392.1476424640481</v>
       </c>
       <c r="U25" t="n">
-        <v>268.4646513401256</v>
+        <v>329.0392840919478</v>
       </c>
       <c r="V25" t="n">
-        <v>238.793694012868</v>
+        <v>299.3683267646902</v>
       </c>
       <c r="W25" t="n">
-        <v>175.6315994932101</v>
+        <v>236.2062322450323</v>
       </c>
       <c r="X25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.0155830693282</v>
+        <v>233.6019326295221</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1523.926838310266</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.736757508745</v>
+        <v>1296.736757508744</v>
       </c>
       <c r="D26" t="n">
         <v>1080.031891782318</v>
@@ -6212,10 +6212,10 @@
         <v>836.5459119137813</v>
       </c>
       <c r="F26" t="n">
-        <v>568.6399040399383</v>
+        <v>568.6399040399384</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6288649853166</v>
+        <v>293.6288649853168</v>
       </c>
       <c r="H26" t="n">
         <v>101.0221402831235</v>
@@ -6224,7 +6224,7 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0142221029036</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K26" t="n">
         <v>570.3149274163019</v>
@@ -6251,19 +6251,19 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.99162595891</v>
+        <v>2834.991625958909</v>
       </c>
       <c r="T26" t="n">
         <v>2755.606166771332</v>
       </c>
       <c r="U26" t="n">
-        <v>2645.132738279653</v>
+        <v>2645.132738279652</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.782934403811</v>
+        <v>2456.78293440381</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.21404418652</v>
+        <v>2246.214044186519</v>
       </c>
       <c r="X26" t="n">
         <v>2015.108303332244</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>769.2358774426511</v>
+        <v>1004.165777565197</v>
       </c>
       <c r="C27" t="n">
-        <v>596.4827623644683</v>
+        <v>831.4126624870137</v>
       </c>
       <c r="D27" t="n">
-        <v>448.8944557234121</v>
+        <v>683.8243558459575</v>
       </c>
       <c r="E27" t="n">
-        <v>291.2849267262668</v>
+        <v>526.2148268488122</v>
       </c>
       <c r="F27" t="n">
-        <v>146.3291367428837</v>
+        <v>381.2590368654291</v>
       </c>
       <c r="G27" t="n">
-        <v>57.74611176186114</v>
+        <v>244.1466302126868</v>
       </c>
       <c r="H27" t="n">
-        <v>57.74611176186114</v>
+        <v>135.3186622772435</v>
       </c>
       <c r="I27" t="n">
         <v>57.74611176186114</v>
@@ -6330,25 +6330,25 @@
         <v>2139.820604768483</v>
       </c>
       <c r="S27" t="n">
-        <v>2117.943820573581</v>
+        <v>2065.869850624538</v>
       </c>
       <c r="T27" t="n">
-        <v>2062.207204336193</v>
+        <v>2010.133234387149</v>
       </c>
       <c r="U27" t="n">
-        <v>1835.29949807605</v>
+        <v>1926.7274631628</v>
       </c>
       <c r="V27" t="n">
-        <v>1601.048254601651</v>
+        <v>1835.978154724196</v>
       </c>
       <c r="W27" t="n">
-        <v>1348.533762934984</v>
+        <v>1583.463663057529</v>
       </c>
       <c r="X27" t="n">
-        <v>1142.006864340561</v>
+        <v>1376.936764463106</v>
       </c>
       <c r="Y27" t="n">
-        <v>936.2784285642116</v>
+        <v>1171.208328686757</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.4873360289558</v>
+        <v>147.4873360289556</v>
       </c>
       <c r="C28" t="n">
-        <v>121.9624499221214</v>
+        <v>121.9624499221212</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9537117109264</v>
+        <v>114.9537117109263</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9964304101559</v>
+        <v>109.9964304101558</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845314</v>
       </c>
       <c r="G28" t="n">
-        <v>80.01822806270386</v>
+        <v>80.0182280627038</v>
       </c>
       <c r="H28" t="n">
-        <v>62.37609362090571</v>
+        <v>62.37609362090568</v>
       </c>
       <c r="I28" t="n">
         <v>57.74611176186114</v>
@@ -6385,49 +6385,49 @@
         <v>126.9853524557952</v>
       </c>
       <c r="K28" t="n">
-        <v>139.5446581902184</v>
+        <v>223.1862700245316</v>
       </c>
       <c r="L28" t="n">
-        <v>352.0661071776753</v>
+        <v>295.0614724834065</v>
       </c>
       <c r="M28" t="n">
-        <v>579.0875766744969</v>
+        <v>381.4366954516461</v>
       </c>
       <c r="N28" t="n">
-        <v>668.5502517935082</v>
+        <v>611.5456170992394</v>
       </c>
       <c r="O28" t="n">
-        <v>735.8469156640526</v>
+        <v>678.8422809697838</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032557</v>
+        <v>853.8499679032553</v>
       </c>
       <c r="Q28" t="n">
-        <v>935.1270168717766</v>
+        <v>935.1270168717763</v>
       </c>
       <c r="R28" t="n">
-        <v>914.2212716027282</v>
+        <v>914.2212716027278</v>
       </c>
       <c r="S28" t="n">
-        <v>837.2804587673394</v>
+        <v>837.280458767339</v>
       </c>
       <c r="T28" t="n">
-        <v>751.1636362651492</v>
+        <v>751.1636362651489</v>
       </c>
       <c r="U28" t="n">
-        <v>605.7369065521217</v>
+        <v>605.7369065521214</v>
       </c>
       <c r="V28" t="n">
-        <v>493.747577883937</v>
+        <v>493.7475778839367</v>
       </c>
       <c r="W28" t="n">
-        <v>348.267112023352</v>
+        <v>348.2671120233517</v>
       </c>
       <c r="X28" t="n">
-        <v>263.3444410669147</v>
+        <v>263.3444410669144</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8881196706199</v>
+        <v>185.8881196706196</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1523.926838310266</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.736757508744</v>
+        <v>1296.736757508745</v>
       </c>
       <c r="D29" t="n">
         <v>1080.031891782318</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137818</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399388</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6288649853168</v>
+        <v>293.628864985317</v>
       </c>
       <c r="H29" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I29" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0142221029034</v>
+        <v>242.0142221029039</v>
       </c>
       <c r="K29" t="n">
-        <v>570.3149274163015</v>
+        <v>570.3149274163021</v>
       </c>
       <c r="L29" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329176</v>
       </c>
       <c r="M29" t="n">
         <v>1468.453380036515</v>
@@ -6488,7 +6488,7 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.991625958909</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T29" t="n">
         <v>2755.606166771332</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.6528524616285</v>
+        <v>769.2358774426516</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8997373834457</v>
+        <v>596.4827623644687</v>
       </c>
       <c r="D30" t="n">
-        <v>360.3114307423896</v>
+        <v>448.8944557234126</v>
       </c>
       <c r="E30" t="n">
-        <v>202.7019017452443</v>
+        <v>291.2849267262673</v>
       </c>
       <c r="F30" t="n">
-        <v>57.74611176186114</v>
+        <v>146.3291367428841</v>
       </c>
       <c r="G30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="H30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="I30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J30" t="n">
         <v>91.50904019075978</v>
@@ -6564,28 +6564,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.850163454432</v>
+        <v>2139.820604768483</v>
       </c>
       <c r="S30" t="n">
-        <v>1896.471444223736</v>
+        <v>1974.441885537787</v>
       </c>
       <c r="T30" t="n">
-        <v>1830.122244319376</v>
+        <v>1775.203334264604</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.716473095027</v>
+        <v>1691.797563040256</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.465229620628</v>
+        <v>1457.546319565856</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.950737953961</v>
+        <v>1348.533762934984</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.423839359539</v>
+        <v>1142.006864340562</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.695403583189</v>
+        <v>936.278428564212</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.487336028956</v>
+        <v>147.4873360289558</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9624499221216</v>
+        <v>121.9624499221214</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9537117109266</v>
+        <v>114.9537117109265</v>
       </c>
       <c r="E31" t="n">
-        <v>109.996430410156</v>
+        <v>109.9964304101559</v>
       </c>
       <c r="F31" t="n">
         <v>105.8629902845315</v>
       </c>
       <c r="G31" t="n">
-        <v>80.01822806270391</v>
+        <v>80.01822806270388</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090573</v>
+        <v>62.37609362090572</v>
       </c>
       <c r="I31" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J31" t="n">
-        <v>57.74611176186114</v>
+        <v>126.9853524557952</v>
       </c>
       <c r="K31" t="n">
-        <v>70.30541749628441</v>
+        <v>280.1909047188004</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1806199551593</v>
+        <v>492.7123537062573</v>
       </c>
       <c r="M31" t="n">
-        <v>240.7904489230655</v>
+        <v>719.7338232030787</v>
       </c>
       <c r="N31" t="n">
-        <v>470.8993705706587</v>
+        <v>809.1964983220901</v>
       </c>
       <c r="O31" t="n">
-        <v>678.8422809697851</v>
+        <v>876.4931621926345</v>
       </c>
       <c r="P31" t="n">
-        <v>853.8499679032566</v>
+        <v>910.854602597524</v>
       </c>
       <c r="Q31" t="n">
-        <v>935.1270168717774</v>
+        <v>935.127016871777</v>
       </c>
       <c r="R31" t="n">
-        <v>914.2212716027288</v>
+        <v>914.2212716027284</v>
       </c>
       <c r="S31" t="n">
-        <v>837.28045876734</v>
+        <v>837.2804587673395</v>
       </c>
       <c r="T31" t="n">
-        <v>751.1636362651496</v>
+        <v>751.1636362651493</v>
       </c>
       <c r="U31" t="n">
-        <v>605.7369065521222</v>
+        <v>605.7369065521218</v>
       </c>
       <c r="V31" t="n">
-        <v>493.7475778839374</v>
+        <v>493.7475778839371</v>
       </c>
       <c r="W31" t="n">
-        <v>348.2671120233523</v>
+        <v>348.2671120233521</v>
       </c>
       <c r="X31" t="n">
-        <v>263.344441066915</v>
+        <v>263.3444410669148</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8881196706201</v>
+        <v>185.8881196706199</v>
       </c>
     </row>
     <row r="32">
@@ -6692,10 +6692,10 @@
         <v>293.6288649853168</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0221402831235</v>
+        <v>101.0221402831236</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J32" t="n">
         <v>242.0142221029036</v>
@@ -6713,10 +6713,10 @@
         <v>1931.030702917615</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.538984592538</v>
+        <v>2329.538984592539</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.325719101488</v>
+        <v>2653.325719101489</v>
       </c>
       <c r="Q32" t="n">
         <v>2854.323443406754</v>
@@ -6725,19 +6725,19 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.991625958909</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T32" t="n">
         <v>2755.606166771332</v>
       </c>
       <c r="U32" t="n">
-        <v>2645.132738279652</v>
+        <v>2645.132738279653</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.78293440381</v>
+        <v>2456.782934403811</v>
       </c>
       <c r="W32" t="n">
-        <v>2246.214044186519</v>
+        <v>2246.21404418652</v>
       </c>
       <c r="X32" t="n">
         <v>2015.108303332244</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.6528524616285</v>
+        <v>580.0495008408657</v>
       </c>
       <c r="C33" t="n">
-        <v>507.8997373834457</v>
+        <v>407.2963857626829</v>
       </c>
       <c r="D33" t="n">
-        <v>360.3114307423896</v>
+        <v>259.7080791216267</v>
       </c>
       <c r="E33" t="n">
-        <v>202.7019017452443</v>
+        <v>245.6004851602757</v>
       </c>
       <c r="F33" t="n">
-        <v>57.74611176186114</v>
+        <v>244.1466302126868</v>
       </c>
       <c r="G33" t="n">
-        <v>57.74611176186114</v>
+        <v>244.1466302126868</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74611176186114</v>
+        <v>135.3186622772435</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J33" t="n">
         <v>91.50904019075978</v>
@@ -6804,25 +6804,25 @@
         <v>2139.820604768483</v>
       </c>
       <c r="S33" t="n">
-        <v>1974.441885537787</v>
+        <v>2072.25937900759</v>
       </c>
       <c r="T33" t="n">
-        <v>1830.122244319376</v>
+        <v>1873.020827734407</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.716473095027</v>
+        <v>1646.113121474264</v>
       </c>
       <c r="V33" t="n">
-        <v>1512.465229620628</v>
+        <v>1411.861877999865</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.950737953961</v>
+        <v>1159.347386333198</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.423839359539</v>
+        <v>952.8204877387757</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.695403583189</v>
+        <v>747.0920519624261</v>
       </c>
     </row>
     <row r="34">
@@ -6844,37 +6844,37 @@
         <v>109.996430410156</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845316</v>
       </c>
       <c r="G34" t="n">
-        <v>80.01822806270391</v>
+        <v>80.01822806270394</v>
       </c>
       <c r="H34" t="n">
-        <v>62.37609362090573</v>
+        <v>62.37609362090575</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J34" t="n">
         <v>126.9853524557951</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1909047188003</v>
+        <v>139.5446581902184</v>
       </c>
       <c r="L34" t="n">
-        <v>492.7123537062572</v>
+        <v>211.4198606490933</v>
       </c>
       <c r="M34" t="n">
-        <v>719.7338232030787</v>
+        <v>297.7950836173328</v>
       </c>
       <c r="N34" t="n">
-        <v>809.1964983220901</v>
+        <v>527.904005264926</v>
       </c>
       <c r="O34" t="n">
-        <v>876.4931621926345</v>
+        <v>678.8422809697851</v>
       </c>
       <c r="P34" t="n">
-        <v>935.1270168717774</v>
+        <v>853.8499679032566</v>
       </c>
       <c r="Q34" t="n">
         <v>935.1270168717774</v>
@@ -6895,7 +6895,7 @@
         <v>493.7475778839374</v>
       </c>
       <c r="W34" t="n">
-        <v>348.2671120233523</v>
+        <v>348.2671120233524</v>
       </c>
       <c r="X34" t="n">
         <v>263.344441066915</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.8634693519836</v>
+        <v>657.0170949735682</v>
       </c>
       <c r="C36" t="n">
-        <v>34.11035427380075</v>
+        <v>484.2639798953854</v>
       </c>
       <c r="D36" t="n">
-        <v>34.11035427380075</v>
+        <v>336.6756732543292</v>
       </c>
       <c r="E36" t="n">
-        <v>34.11035427380075</v>
+        <v>179.0661442571839</v>
       </c>
       <c r="F36" t="n">
         <v>34.11035427380075</v>
@@ -7014,16 +7014,16 @@
         <v>34.11035427380075</v>
       </c>
       <c r="J36" t="n">
-        <v>67.87328270269938</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="K36" t="n">
-        <v>67.87328270269938</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="L36" t="n">
-        <v>376.5528981198456</v>
+        <v>167.4267151389877</v>
       </c>
       <c r="M36" t="n">
-        <v>789.5676439095155</v>
+        <v>580.4414609286575</v>
       </c>
       <c r="N36" t="n">
         <v>1002.557095066942</v>
@@ -7041,25 +7041,25 @@
         <v>1705.517713690038</v>
       </c>
       <c r="S36" t="n">
-        <v>1699.073347518708</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="T36" t="n">
-        <v>1499.834796245525</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="U36" t="n">
-        <v>1272.927089985382</v>
+        <v>1556.038164485406</v>
       </c>
       <c r="V36" t="n">
-        <v>1038.675846510983</v>
+        <v>1321.786921011007</v>
       </c>
       <c r="W36" t="n">
-        <v>786.1613548443161</v>
+        <v>1069.27242934434</v>
       </c>
       <c r="X36" t="n">
-        <v>579.6344562498936</v>
+        <v>862.7455307499177</v>
       </c>
       <c r="Y36" t="n">
-        <v>373.906020473544</v>
+        <v>657.0170949735682</v>
       </c>
     </row>
     <row r="37">
@@ -7096,10 +7096,10 @@
         <v>34.11035427380075</v>
       </c>
       <c r="K37" t="n">
-        <v>46.66966000822402</v>
+        <v>46.66966000822401</v>
       </c>
       <c r="L37" t="n">
-        <v>118.544862467099</v>
+        <v>118.5448624670989</v>
       </c>
       <c r="M37" t="n">
         <v>204.9200854353385</v>
@@ -7108,16 +7108,16 @@
         <v>294.3827605543498</v>
       </c>
       <c r="O37" t="n">
-        <v>361.6794244248943</v>
+        <v>361.6794244248942</v>
       </c>
       <c r="P37" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="Q37" t="n">
-        <v>335.4662320779615</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="R37" t="n">
-        <v>198.3894273609044</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="S37" t="n">
         <v>198.3894273609044</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649575</v>
+        <v>965.4267187649573</v>
       </c>
       <c r="C38" t="n">
-        <v>820.1680268861003</v>
+        <v>820.1680268861001</v>
       </c>
       <c r="D38" t="n">
-        <v>685.3945500823381</v>
+        <v>685.3945500823379</v>
       </c>
       <c r="E38" t="n">
-        <v>523.8399591364657</v>
+        <v>523.8399591364655</v>
       </c>
       <c r="F38" t="n">
-        <v>337.8653401852869</v>
+        <v>337.8653401852866</v>
       </c>
       <c r="G38" t="n">
         <v>144.7856900533299</v>
@@ -7181,7 +7181,7 @@
         <v>550.1577046591112</v>
       </c>
       <c r="M38" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341267</v>
       </c>
       <c r="N38" t="n">
         <v>1204.163712786645</v>
@@ -7193,16 +7193,16 @@
         <v>1645.166235913354</v>
       </c>
       <c r="Q38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="R38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="S38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="T38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="U38" t="n">
         <v>1676.975674121022</v>
@@ -7211,13 +7211,13 @@
         <v>1570.557259167845</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873219</v>
+        <v>1441.919757873218</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.585728131141</v>
+        <v>1127.58572813114</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>393.2639878028092</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="C39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="D39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="E39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="F39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="G39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="H39" t="n">
-        <v>111.6829047891831</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="I39" t="n">
         <v>34.11035427380075</v>
       </c>
       <c r="J39" t="n">
-        <v>34.11035427380075</v>
+        <v>67.87328270269938</v>
       </c>
       <c r="K39" t="n">
-        <v>218.4221898711897</v>
+        <v>252.1851183000884</v>
       </c>
       <c r="L39" t="n">
-        <v>527.101805288336</v>
+        <v>560.8647337172346</v>
       </c>
       <c r="M39" t="n">
-        <v>580.4414609286575</v>
+        <v>973.8794795069044</v>
       </c>
       <c r="N39" t="n">
-        <v>1002.557095066942</v>
+        <v>1119.36319818925</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.843688882627</v>
+        <v>1453.649792004935</v>
       </c>
       <c r="P39" t="n">
-        <v>1588.711610567729</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="Q39" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375987</v>
       </c>
       <c r="S39" t="n">
-        <v>1678.946967375111</v>
+        <v>1526.320232440525</v>
       </c>
       <c r="T39" t="n">
-        <v>1479.708416101928</v>
+        <v>1327.081681167342</v>
       </c>
       <c r="U39" t="n">
-        <v>1252.800709841785</v>
+        <v>1100.173974907199</v>
       </c>
       <c r="V39" t="n">
-        <v>1018.549466367386</v>
+        <v>865.9227314327999</v>
       </c>
       <c r="W39" t="n">
-        <v>766.0349747007192</v>
+        <v>613.4082397661332</v>
       </c>
       <c r="X39" t="n">
-        <v>766.0349747007192</v>
+        <v>406.8813411717107</v>
       </c>
       <c r="Y39" t="n">
-        <v>560.3065389243696</v>
+        <v>201.1529053953612</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="C40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="D40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="E40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="F40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="G40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="H40" t="n">
-        <v>106.9672115686155</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="I40" t="n">
-        <v>106.9672115686155</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="J40" t="n">
         <v>34.11035427380075</v>
       </c>
       <c r="K40" t="n">
-        <v>46.66966000822402</v>
+        <v>46.66966000822401</v>
       </c>
       <c r="L40" t="n">
-        <v>118.544862467099</v>
+        <v>118.5448624670989</v>
       </c>
       <c r="M40" t="n">
         <v>204.9200854353385</v>
@@ -7345,37 +7345,37 @@
         <v>294.3827605543498</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6794244248943</v>
+        <v>361.6794244248942</v>
       </c>
       <c r="P40" t="n">
-        <v>396.0408648297839</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="Q40" t="n">
-        <v>335.4662320779615</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="R40" t="n">
-        <v>335.4662320779615</v>
+        <v>396.0408648297838</v>
       </c>
       <c r="S40" t="n">
-        <v>335.4662320779615</v>
+        <v>359.5334968384968</v>
       </c>
       <c r="T40" t="n">
-        <v>267.0608510761932</v>
+        <v>355.3480632589709</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5655102858299</v>
+        <v>291.8527224686076</v>
       </c>
       <c r="V40" t="n">
-        <v>173.5075705403094</v>
+        <v>261.7947827230871</v>
       </c>
       <c r="W40" t="n">
-        <v>109.9584936023886</v>
+        <v>198.2457057851663</v>
       </c>
       <c r="X40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.9672115686155</v>
+        <v>195.2544237513932</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3257901718238</v>
+        <v>981.3257901718241</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578801</v>
+        <v>833.5211685578802</v>
       </c>
       <c r="D41" t="n">
         <v>696.2017620190315</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1012413380729</v>
+        <v>532.101241338073</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5806926518077</v>
+        <v>343.5806926518078</v>
       </c>
       <c r="G41" t="n">
-        <v>147.9551127847639</v>
+        <v>147.955112784764</v>
       </c>
       <c r="H41" t="n">
         <v>34.73384727014845</v>
@@ -7409,28 +7409,28 @@
         <v>34.73384727014845</v>
       </c>
       <c r="J41" t="n">
-        <v>78.35571108260901</v>
+        <v>78.35571108260899</v>
       </c>
       <c r="K41" t="n">
-        <v>266.0101698674252</v>
+        <v>296.5613266884624</v>
       </c>
       <c r="L41" t="n">
-        <v>550.7811976554588</v>
+        <v>581.332354476496</v>
       </c>
       <c r="M41" t="n">
-        <v>882.8561294304743</v>
+        <v>913.4072862515117</v>
       </c>
       <c r="N41" t="n">
-        <v>1204.787205782992</v>
+        <v>1235.33836260403</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.649240929333</v>
+        <v>1493.200397750371</v>
       </c>
       <c r="P41" t="n">
-        <v>1645.789728909702</v>
+        <v>1676.340885730739</v>
       </c>
       <c r="Q41" t="n">
-        <v>1706.141206686385</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="R41" t="n">
         <v>1736.692363507422</v>
@@ -7445,16 +7445,16 @@
         <v>1705.604394203321</v>
       </c>
       <c r="V41" t="n">
-        <v>1596.640049515057</v>
+        <v>1596.640049515058</v>
       </c>
       <c r="W41" t="n">
-        <v>1465.456618485344</v>
+        <v>1465.456618485345</v>
       </c>
       <c r="X41" t="n">
-        <v>1313.736336818646</v>
+        <v>1313.736336818647</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.030729273093</v>
+        <v>1146.030729273094</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>446.1271341861201</v>
+        <v>669.7955074660676</v>
       </c>
       <c r="C42" t="n">
-        <v>446.1271341861201</v>
+        <v>497.0423923878848</v>
       </c>
       <c r="D42" t="n">
-        <v>446.1271341861201</v>
+        <v>349.4540857468287</v>
       </c>
       <c r="E42" t="n">
-        <v>288.5176051889748</v>
+        <v>191.8445567496834</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5618152055917</v>
+        <v>46.88876676630025</v>
       </c>
       <c r="G42" t="n">
-        <v>143.5618152055917</v>
+        <v>46.88876676630025</v>
       </c>
       <c r="H42" t="n">
         <v>34.73384727014845</v>
@@ -7500,13 +7500,13 @@
         <v>756.4282084769645</v>
       </c>
       <c r="N42" t="n">
-        <v>1033.731744884327</v>
+        <v>1150.537848006635</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.018338700011</v>
+        <v>1484.82444182232</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.886260385114</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.692363507422</v>
@@ -7521,19 +7521,19 @@
         <v>1294.104651689493</v>
       </c>
       <c r="U42" t="n">
-        <v>1067.19694542935</v>
+        <v>1290.084339652722</v>
       </c>
       <c r="V42" t="n">
-        <v>1055.052117121747</v>
+        <v>1278.720490401695</v>
       </c>
       <c r="W42" t="n">
-        <v>1025.425019678453</v>
+        <v>1249.0933929584</v>
       </c>
       <c r="X42" t="n">
-        <v>818.8981210840301</v>
+        <v>1042.566494363978</v>
       </c>
       <c r="Y42" t="n">
-        <v>613.1696853076805</v>
+        <v>836.8380585876281</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
       <c r="C43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73384727014845</v>
+        <v>72.02026090217691</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73384727014845</v>
+        <v>72.02026090217691</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73384727014845</v>
+        <v>72.02026090217691</v>
       </c>
       <c r="I43" t="n">
-        <v>34.73384727014845</v>
+        <v>72.02026090217691</v>
       </c>
       <c r="J43" t="n">
         <v>34.73384727014845</v>
       </c>
       <c r="K43" t="n">
-        <v>47.29315300457172</v>
+        <v>47.29315300457171</v>
       </c>
       <c r="L43" t="n">
-        <v>119.1683554634467</v>
+        <v>119.1683554634466</v>
       </c>
       <c r="M43" t="n">
         <v>205.5435784316862</v>
@@ -7582,37 +7582,37 @@
         <v>295.0062535506975</v>
       </c>
       <c r="O43" t="n">
-        <v>362.3029174212419</v>
+        <v>362.3029174212418</v>
       </c>
       <c r="P43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="R43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="S43" t="n">
-        <v>211.7425690326841</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="T43" t="n">
-        <v>205.0112057180717</v>
+        <v>389.932994511519</v>
       </c>
       <c r="U43" t="n">
-        <v>138.969935192622</v>
+        <v>323.8917239860693</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3660657120152</v>
+        <v>291.2878545054624</v>
       </c>
       <c r="W43" t="n">
-        <v>40.27105903900792</v>
+        <v>225.1928478324551</v>
       </c>
       <c r="X43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.73384727014845</v>
+        <v>219.6556360635956</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.3257901718242</v>
+        <v>981.3257901718243</v>
       </c>
       <c r="C44" t="n">
-        <v>833.5211685578804</v>
+        <v>833.5211685578806</v>
       </c>
       <c r="D44" t="n">
-        <v>696.2017620190318</v>
+        <v>696.2017620190322</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1012413380729</v>
+        <v>532.1012413380734</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5806926518077</v>
+        <v>343.5806926518082</v>
       </c>
       <c r="G44" t="n">
-        <v>147.955112784764</v>
+        <v>147.9551127847639</v>
       </c>
       <c r="H44" t="n">
         <v>34.73384727014845</v>
@@ -7646,7 +7646,7 @@
         <v>34.73384727014845</v>
       </c>
       <c r="J44" t="n">
-        <v>78.35571108260901</v>
+        <v>78.35571108260899</v>
       </c>
       <c r="K44" t="n">
         <v>266.0101698674252</v>
@@ -7670,7 +7670,7 @@
         <v>1706.141206686385</v>
       </c>
       <c r="R44" t="n">
-        <v>1736.692363507422</v>
+        <v>1710.159589245355</v>
       </c>
       <c r="S44" t="n">
         <v>1736.692363507422</v>
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>657.6405879699158</v>
+        <v>699.0853164373584</v>
       </c>
       <c r="C45" t="n">
-        <v>484.887472891733</v>
+        <v>526.3322013591755</v>
       </c>
       <c r="D45" t="n">
-        <v>337.2991662506769</v>
+        <v>378.7438947181193</v>
       </c>
       <c r="E45" t="n">
-        <v>179.6896372535316</v>
+        <v>221.1343657209741</v>
       </c>
       <c r="F45" t="n">
-        <v>34.73384727014845</v>
+        <v>221.1343657209741</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73384727014845</v>
+        <v>221.1343657209741</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73384727014845</v>
+        <v>112.3063977855308</v>
       </c>
       <c r="I45" t="n">
         <v>34.73384727014845</v>
       </c>
       <c r="J45" t="n">
-        <v>34.73384727014845</v>
+        <v>68.49677569904708</v>
       </c>
       <c r="K45" t="n">
-        <v>34.73384727014845</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="L45" t="n">
-        <v>343.4134626872947</v>
+        <v>307.691742248878</v>
       </c>
       <c r="M45" t="n">
-        <v>756.4282084769645</v>
+        <v>720.7064880385478</v>
       </c>
       <c r="N45" t="n">
         <v>1150.537848006635</v>
@@ -7752,25 +7752,25 @@
         <v>1736.692363507422</v>
       </c>
       <c r="S45" t="n">
-        <v>1727.724520640085</v>
+        <v>1571.313644276726</v>
       </c>
       <c r="T45" t="n">
-        <v>1727.724520640085</v>
+        <v>1372.075093003544</v>
       </c>
       <c r="U45" t="n">
-        <v>1723.704208603314</v>
+        <v>1368.054780966773</v>
       </c>
       <c r="V45" t="n">
-        <v>1489.452965128915</v>
+        <v>1356.690931715746</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.938473462248</v>
+        <v>1278.383201929691</v>
       </c>
       <c r="X45" t="n">
-        <v>1030.411574867826</v>
+        <v>1071.856303335268</v>
       </c>
       <c r="Y45" t="n">
-        <v>824.6831390914763</v>
+        <v>866.1278675589189</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="C46" t="n">
         <v>34.73384727014845</v>
@@ -7807,10 +7807,10 @@
         <v>34.73384727014845</v>
       </c>
       <c r="K46" t="n">
-        <v>47.29315300457172</v>
+        <v>47.29315300457171</v>
       </c>
       <c r="L46" t="n">
-        <v>119.1683554634467</v>
+        <v>119.1683554634466</v>
       </c>
       <c r="M46" t="n">
         <v>205.5435784316862</v>
@@ -7819,37 +7819,37 @@
         <v>295.0062535506975</v>
       </c>
       <c r="O46" t="n">
-        <v>362.3029174212419</v>
+        <v>362.3029174212418</v>
       </c>
       <c r="P46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="R46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="S46" t="n">
-        <v>380.7693901753129</v>
+        <v>396.6643578261314</v>
       </c>
       <c r="T46" t="n">
-        <v>374.0380268607005</v>
+        <v>389.9329945115191</v>
       </c>
       <c r="U46" t="n">
-        <v>307.9967563352508</v>
+        <v>323.8917239860695</v>
       </c>
       <c r="V46" t="n">
-        <v>275.3928868546439</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W46" t="n">
-        <v>209.2978801816366</v>
+        <v>40.27105903900789</v>
       </c>
       <c r="X46" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014845</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.1697838000144</v>
+        <v>171.1697838000134</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6144857089326</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8775,19 +8775,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>83.41507039893607</v>
       </c>
       <c r="N12" t="n">
-        <v>479.9282827844821</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>76.78923727937027</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8939,13 +8939,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132552</v>
+        <v>391.3414925343131</v>
       </c>
       <c r="P14" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.1168943073587</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9006,10 +9006,10 @@
         <v>97.0307086440266</v>
       </c>
       <c r="K15" t="n">
-        <v>88.87027518258795</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>205.0333026350266</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9021,10 +9021,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>82.3730143442764</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,13 +9240,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>239.167805320698</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
@@ -9258,10 +9258,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>268.5465856547696</v>
+        <v>76.78923727937016</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>171.1697838000134</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9416,7 +9416,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>329.9799605193989</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9483,13 +9483,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>73.87636778514675</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>79.01008688341797</v>
+        <v>390.8076782138688</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>171.1697838000136</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9656,7 +9656,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.1168943073567</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,10 +9714,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,7 +9726,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>417.2735890537159</v>
+        <v>196.9960496332246</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K36" t="n">
         <v>88.87027518258787</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>208.5393585580629</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>269.8743541728553</v>
+        <v>481.1129228403886</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,10 +10908,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>121.0250944319714</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>481.1129228403886</v>
+        <v>201.6867456121676</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>334.8380766475379</v>
+        <v>452.8240393973442</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,19 +11373,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>129.3138737977144</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8240393973442</v>
+        <v>488.9065852947348</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5378344848628</v>
+        <v>99.46027638882528</v>
       </c>
       <c r="C11" t="n">
-        <v>244.8065201724104</v>
+        <v>244.8065201724102</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4261572480661</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3546460159871</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6830236246371</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.684868012369</v>
+        <v>264.5084962447034</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.8065201724103</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4261572480661</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.939460248755</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1492688429795</v>
+        <v>6.229724682160367</v>
       </c>
       <c r="H14" t="n">
-        <v>71.81950379055024</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2570343856666</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.354646015987</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3515414940223</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6830236246371</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.5084962447035</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.85001617220778e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>945875.092595276</v>
+        <v>945875.0925952761</v>
       </c>
     </row>
     <row r="6">
@@ -26314,16 +26314,16 @@
         <v>507597.7360973376</v>
       </c>
       <c r="C2" t="n">
-        <v>507597.7360973375</v>
+        <v>507597.7360973376</v>
       </c>
       <c r="D2" t="n">
         <v>507597.7360973375</v>
       </c>
       <c r="E2" t="n">
-        <v>436587.351168808</v>
+        <v>436587.3511688078</v>
       </c>
       <c r="F2" t="n">
-        <v>436587.3511688081</v>
+        <v>436587.3511688078</v>
       </c>
       <c r="G2" t="n">
         <v>508699.6303843349</v>
@@ -26332,13 +26332,13 @@
         <v>508699.6303843351</v>
       </c>
       <c r="I2" t="n">
-        <v>508699.630384335</v>
+        <v>508699.6303843355</v>
       </c>
       <c r="J2" t="n">
+        <v>508699.6303843345</v>
+      </c>
+      <c r="K2" t="n">
         <v>508699.6303843347</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508699.6303843348</v>
       </c>
       <c r="L2" t="n">
         <v>508699.6303843348</v>
@@ -26350,10 +26350,10 @@
         <v>508699.6303843351</v>
       </c>
       <c r="O2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="P2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843351</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329999.9964321814</v>
+        <v>329999.9964321818</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81106.82224513747</v>
+        <v>81106.82224513742</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.5909185751</v>
+        <v>110158.5909185752</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81106.82224513747</v>
+        <v>81106.82224513739</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.33570367846</v>
+        <v>97223.33570367844</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632397</v>
+        <v>32405.8866163241</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>378659.407041549</v>
       </c>
       <c r="H4" t="n">
-        <v>378659.4070415491</v>
+        <v>378659.407041549</v>
       </c>
       <c r="I4" t="n">
         <v>378659.407041549</v>
@@ -26448,16 +26448,16 @@
         <v>378057.7732182547</v>
       </c>
       <c r="M4" t="n">
-        <v>378597.65461573</v>
+        <v>378597.6546157301</v>
       </c>
       <c r="N4" t="n">
         <v>378597.6546157301</v>
       </c>
       <c r="O4" t="n">
-        <v>378488.0464557404</v>
+        <v>378488.0464557403</v>
       </c>
       <c r="P4" t="n">
-        <v>378488.0464557404</v>
+        <v>378488.0464557405</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38980.63494425712</v>
+        <v>38980.63494425714</v>
       </c>
       <c r="F5" t="n">
-        <v>38980.63494425712</v>
+        <v>38980.63494425713</v>
       </c>
       <c r="G5" t="n">
-        <v>47503.8467434152</v>
+        <v>47503.84674341521</v>
       </c>
       <c r="H5" t="n">
-        <v>47503.8467434152</v>
+        <v>47503.84674341521</v>
       </c>
       <c r="I5" t="n">
         <v>47503.8467434152</v>
@@ -26494,22 +26494,22 @@
         <v>58687.82962108243</v>
       </c>
       <c r="K5" t="n">
-        <v>58687.82962108242</v>
+        <v>58687.82962108243</v>
       </c>
       <c r="L5" t="n">
-        <v>58687.82962108242</v>
+        <v>58687.82962108243</v>
       </c>
       <c r="M5" t="n">
         <v>47543.6649661426</v>
       </c>
       <c r="N5" t="n">
-        <v>47543.6649661426</v>
+        <v>47543.66496614259</v>
       </c>
       <c r="O5" t="n">
+        <v>47805.62621413685</v>
+      </c>
+      <c r="P5" t="n">
         <v>47805.62621413686</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47805.62621413685</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36044.61734788345</v>
+        <v>36040.20977073551</v>
       </c>
       <c r="C6" t="n">
-        <v>36044.61734788339</v>
+        <v>36040.20977073546</v>
       </c>
       <c r="D6" t="n">
-        <v>36044.61734788339</v>
+        <v>36040.2097707354</v>
       </c>
       <c r="E6" t="n">
-        <v>-245458.6515851721</v>
+        <v>-245747.1007020348</v>
       </c>
       <c r="F6" t="n">
-        <v>84541.34484700931</v>
+        <v>84252.89573014692</v>
       </c>
       <c r="G6" t="n">
-        <v>1429.554354233165</v>
+        <v>1429.554354233333</v>
       </c>
       <c r="H6" t="n">
-        <v>82536.37659937076</v>
+        <v>82536.37659937081</v>
       </c>
       <c r="I6" t="n">
-        <v>82536.37659937076</v>
+        <v>82536.37659937123</v>
       </c>
       <c r="J6" t="n">
-        <v>-38204.56337357757</v>
+        <v>-38204.5633735778</v>
       </c>
       <c r="K6" t="n">
-        <v>71954.02754499762</v>
+        <v>71954.0275449976</v>
       </c>
       <c r="L6" t="n">
-        <v>-9152.794700139741</v>
+        <v>-9152.794700139755</v>
       </c>
       <c r="M6" t="n">
-        <v>-14665.02490121601</v>
+        <v>-14665.02490121607</v>
       </c>
       <c r="N6" t="n">
         <v>82558.31080246242</v>
@@ -26561,7 +26561,7 @@
         <v>50000.07109813402</v>
       </c>
       <c r="P6" t="n">
-        <v>82405.95771445792</v>
+        <v>82405.95771445779</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G2" t="n">
         <v>223.5621033129542</v>
@@ -26707,7 +26707,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K2" t="n">
         <v>142.0669156854363</v>
@@ -26722,10 +26722,10 @@
         <v>223.1789907188739</v>
       </c>
       <c r="O2" t="n">
+        <v>220.6585202811383</v>
+      </c>
+      <c r="P2" t="n">
         <v>220.6585202811384</v>
-      </c>
-      <c r="P2" t="n">
-        <v>220.6585202811383</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618812</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="F3" t="n">
         <v>131.0716122618812</v>
       </c>
       <c r="G3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="H3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="I3" t="n">
         <v>131.0716122618814</v>
@@ -26808,16 +26808,16 @@
         <v>425.1947883666028</v>
       </c>
       <c r="I4" t="n">
-        <v>425.1947883666026</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="J4" t="n">
         <v>721.8263970232642</v>
       </c>
       <c r="K4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232643</v>
       </c>
       <c r="L4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232643</v>
       </c>
       <c r="M4" t="n">
         <v>426.3794284225094</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.6833878790144</v>
+        <v>40.68338787901462</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064217</v>
       </c>
       <c r="M2" t="n">
         <v>81.11207503343761</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127888</v>
+        <v>38.16291744127903</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618812</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566617</v>
+        <v>296.6316086566614</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.747819765848</v>
+        <v>129.7478197658479</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.79366245434619</v>
+        <v>7.793662454346247</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.6833878790144</v>
+        <v>40.68338787901462</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E12" t="n">
-        <v>10.26427957012501</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F12" t="n">
-        <v>122.1785755065323</v>
+        <v>42.07326597473009</v>
       </c>
       <c r="G12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H12" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I12" t="n">
-        <v>76.79682501022857</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.19073690091017</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="K13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.178575506531</v>
       </c>
       <c r="L13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="N13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="O13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="P13" t="n">
-        <v>122.1785755065356</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="R13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="S13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.7516180225036</v>
       </c>
       <c r="S14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C15" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D15" t="n">
-        <v>87.45501647103458</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G15" t="n">
-        <v>122.1785755065323</v>
+        <v>73.01612922059061</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>76.79682501022857</v>
@@ -28460,19 +28460,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V15" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="K16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="L16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="M16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="N16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="O16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="R16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="S16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S17" t="n">
         <v>193.8577381982423</v>
@@ -28643,10 +28643,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -28658,7 +28658,7 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.12667720422</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>29.08192358460713</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J19" t="n">
-        <v>72.12828872186662</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.96888642430409</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.7636035017943</v>
@@ -28776,7 +28776,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="U19" t="n">
-        <v>25.97161724836212</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V19" t="n">
         <v>223.5621033129542</v>
@@ -28788,7 +28788,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>153.255362949347</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S20" t="n">
         <v>193.8577381982423</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>149.8059951235732</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>223.5621033129542</v>
@@ -28940,13 +28940,13 @@
         <v>223.5621033129542</v>
       </c>
       <c r="W21" t="n">
-        <v>40.0209026469729</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28968,7 +28968,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>97.57410185973185</v>
       </c>
       <c r="G22" t="n">
         <v>167.6532302850457</v>
@@ -28980,7 +28980,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J22" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R22" t="n">
         <v>162.7636035017943</v>
@@ -29016,7 +29016,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="V22" t="n">
-        <v>174.9771837628815</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W22" t="n">
         <v>223.5621033129542</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>68.10751363124393</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7412825862149</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>132.1260259623268</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>223.5621033129542</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29205,16 +29205,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6532302850457</v>
+        <v>116.2217656302583</v>
       </c>
       <c r="H25" t="n">
         <v>159.5326287828165</v>
       </c>
       <c r="I25" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J25" t="n">
         <v>72.12828872186662</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R25" t="n">
         <v>162.7636035017943</v>
@@ -29259,7 +29259,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="X25" t="n">
-        <v>85.94050367266618</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="27">
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>48.04408785500257</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S27" t="n">
-        <v>142.0669156854363</v>
+        <v>90.51368543588325</v>
       </c>
       <c r="T27" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>84.48647660031634</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>84.48647660031661</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="29">
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7412825862149</v>
+        <v>48.04408785500216</v>
       </c>
       <c r="H30" t="n">
         <v>107.7396882560888</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>131.5604578551338</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>142.0669156854363</v>
@@ -29651,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J31" t="n">
-        <v>72.12828872186662</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M31" t="n">
-        <v>12.3581878784511</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.0669156854363</v>
+        <v>84.48647660031715</v>
       </c>
       <c r="R31" t="n">
         <v>142.0669156854363</v>
@@ -29785,7 +29785,7 @@
         <v>142.0669156854363</v>
       </c>
       <c r="O32" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854373</v>
       </c>
       <c r="P32" t="n">
         <v>142.0669156854363</v>
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G33" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>96.83931853510522</v>
       </c>
       <c r="T33" t="n">
-        <v>54.36972095422362</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>142.0669156854363</v>
       </c>
-      <c r="L34" t="n">
+      <c r="O34" t="n">
+        <v>84.48647660031786</v>
+      </c>
+      <c r="P34" t="n">
         <v>142.0669156854363</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>142.0669156854363</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>24.51759017601346</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>59.96888642430409</v>
       </c>
       <c r="R34" t="n">
         <v>142.0669156854363</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.7412825862149</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S36" t="n">
-        <v>157.3450095287725</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>76.65387548495642</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I37" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J37" t="n">
         <v>72.12828872186662</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R37" t="n">
-        <v>27.05756683190776</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S37" t="n">
-        <v>218.2383203924713</v>
+        <v>22.56339729828068</v>
       </c>
       <c r="T37" t="n">
         <v>223.1789907188739</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -30317,10 +30317,10 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.4198931866113</v>
+        <v>63.51016250228163</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,13 +30396,13 @@
         <v>167.6532302850457</v>
       </c>
       <c r="H40" t="n">
-        <v>159.5326287828165</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R40" t="n">
         <v>162.7636035017943</v>
       </c>
       <c r="S40" t="n">
-        <v>218.2383203924713</v>
+        <v>182.0960260810972</v>
       </c>
       <c r="T40" t="n">
-        <v>159.601242770854</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="U40" t="n">
         <v>223.1789907188739</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="C41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="D41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="E41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="F41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="G41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="H41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="I41" t="n">
         <v>184.9101839214861</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>30.85975436468402</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>139.6113723871879</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S41" t="n">
         <v>193.8577381982423</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="U41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="V41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="W41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="X41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
     </row>
     <row r="42">
@@ -30539,10 +30539,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.70631795489851</v>
       </c>
       <c r="I42" t="n">
         <v>76.79682501022856</v>
@@ -30593,13 +30593,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="V42" t="n">
-        <v>219.8853510151285</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="W42" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.6532302850457</v>
@@ -30636,10 +30636,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I43" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J43" t="n">
-        <v>72.12828872186662</v>
+        <v>35.21473922615845</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,22 +30666,22 @@
         <v>162.7636035017943</v>
       </c>
       <c r="S43" t="n">
-        <v>35.16574948695833</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T43" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="W43" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6585202811384</v>
+        <v>220.6585202811383</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="C44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="D44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="E44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="F44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="G44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="H44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="I44" t="n">
         <v>184.9101839214861</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>139.6113723871879</v>
+        <v>112.8105903042917</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8577381982423</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="T44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="U44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="W44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="X44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
     </row>
     <row r="45">
@@ -30785,16 +30785,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,22 +30821,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.19073690091014</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S45" t="n">
-        <v>154.846767599725</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>172.4646942618058</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -30873,7 +30873,7 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I46" t="n">
-        <v>146.6505977258904</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J46" t="n">
         <v>72.12828872186662</v>
@@ -30903,22 +30903,22 @@
         <v>162.7636035017943</v>
       </c>
       <c r="S46" t="n">
-        <v>202.5023024181609</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="U46" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V46" t="n">
-        <v>220.6585202811383</v>
+        <v>37.58594937562535</v>
       </c>
       <c r="W46" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="X46" t="n">
-        <v>220.6585202811383</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5269210543191198</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545688</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I11" t="n">
-        <v>20.31412394663789</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J11" t="n">
-        <v>44.72176583401744</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K11" t="n">
-        <v>67.0263340633458</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946458</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921223</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479643</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091068</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P11" t="n">
-        <v>75.7719062624074</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460389</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R11" t="n">
-        <v>33.09920467837345</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S11" t="n">
-        <v>12.00721352529696</v>
+        <v>12.00721352529698</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281948</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04215368434552958</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2819276188274425</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H12" t="n">
-        <v>2.722827266043985</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I12" t="n">
-        <v>9.706718455243088</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J12" t="n">
-        <v>26.63597735597342</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741207</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L12" t="n">
-        <v>61.21415250023045</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M12" t="n">
-        <v>71.43402868272523</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N12" t="n">
-        <v>73.32467486337067</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198366</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P12" t="n">
-        <v>53.83580994960172</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.98781323839425</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R12" t="n">
-        <v>17.50424286018104</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S12" t="n">
-        <v>5.236681867255343</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T12" t="n">
-        <v>1.13636614781763</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01854786965970017</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363586450624086</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100326</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513164</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591229</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K13" t="n">
-        <v>27.46057712634165</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L13" t="n">
-        <v>35.14008437591483</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M13" t="n">
-        <v>37.0502919710101</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N13" t="n">
-        <v>36.16931883941388</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O13" t="n">
-        <v>33.40822012209392</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P13" t="n">
-        <v>28.58650376282076</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.79181345154405</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R13" t="n">
-        <v>10.62754416798793</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S13" t="n">
-        <v>4.119086568951247</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009896028903019</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01289228973067685</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H17" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I17" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J17" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K17" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L17" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M17" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N17" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O17" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P17" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R17" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S17" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T17" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I18" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J18" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K18" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L18" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M18" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N18" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O18" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P18" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R18" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S18" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T18" t="n">
         <v>1.136366147817632</v>
@@ -32385,46 +32385,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H19" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I19" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J19" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K19" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L19" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M19" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N19" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O19" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P19" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R19" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S19" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T19" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H20" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I20" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J20" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K20" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L20" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M20" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N20" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O20" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P20" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R20" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S20" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T20" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H21" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I21" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J21" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K21" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L21" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M21" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N21" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O21" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P21" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R21" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S21" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T21" t="n">
         <v>1.136366147817632</v>
@@ -32622,46 +32622,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H22" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I22" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J22" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K22" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L22" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M22" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N22" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O22" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P22" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R22" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S22" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T22" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H23" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I23" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J23" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K23" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L23" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M23" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N23" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O23" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P23" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q23" t="n">
         <v>56.90154600460399</v>
@@ -32734,13 +32734,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S23" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T23" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I24" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J24" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K24" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L24" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M24" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N24" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O24" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P24" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R24" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S24" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T24" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H25" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I25" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J25" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K25" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L25" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M25" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N25" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O25" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P25" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q25" t="n">
         <v>19.79181345154409</v>
@@ -32892,7 +32892,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S25" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T25" t="n">
         <v>1.00989602890302</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I26" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J26" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K26" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L26" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M26" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N26" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O26" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P26" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q26" t="n">
         <v>56.90154600460399</v>
@@ -32971,13 +32971,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S26" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T26" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I27" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J27" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K27" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L27" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M27" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N27" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O27" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P27" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R27" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S27" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T27" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H28" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I28" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J28" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K28" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L28" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M28" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N28" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O28" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P28" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q28" t="n">
         <v>19.79181345154409</v>
@@ -33129,7 +33129,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S28" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T28" t="n">
         <v>1.00989602890302</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H29" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I29" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J29" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K29" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L29" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M29" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N29" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O29" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P29" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q29" t="n">
         <v>56.90154600460399</v>
@@ -33208,13 +33208,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S29" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T29" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H30" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I30" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J30" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K30" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L30" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M30" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N30" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O30" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P30" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R30" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S30" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T30" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H31" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I31" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J31" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K31" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L31" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M31" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N31" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O31" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P31" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q31" t="n">
         <v>19.79181345154409</v>
@@ -33366,7 +33366,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S31" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T31" t="n">
         <v>1.00989602890302</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H32" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I32" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J32" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K32" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L32" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M32" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N32" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O32" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P32" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q32" t="n">
         <v>56.90154600460399</v>
@@ -33445,13 +33445,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S32" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T32" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I33" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J33" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K33" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L33" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M33" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N33" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O33" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P33" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R33" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S33" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T33" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H34" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I34" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J34" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K34" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L34" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M34" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N34" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O34" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P34" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q34" t="n">
         <v>19.79181345154409</v>
@@ -33603,7 +33603,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S34" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T34" t="n">
         <v>1.00989602890302</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H35" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I35" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J35" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K35" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L35" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M35" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N35" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O35" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P35" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q35" t="n">
         <v>56.90154600460399</v>
@@ -33682,13 +33682,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S35" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T35" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H36" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J36" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K36" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L36" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M36" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N36" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O36" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P36" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R36" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S36" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T36" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H37" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I37" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J37" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K37" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L37" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M37" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N37" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O37" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P37" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q37" t="n">
         <v>19.79181345154409</v>
@@ -33840,7 +33840,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S37" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T37" t="n">
         <v>1.00989602890302</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H38" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I38" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J38" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K38" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L38" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M38" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N38" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O38" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P38" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q38" t="n">
         <v>56.90154600460399</v>
@@ -33919,13 +33919,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S38" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T38" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I39" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J39" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K39" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L39" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M39" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N39" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O39" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P39" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R39" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S39" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T39" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H40" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I40" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J40" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K40" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L40" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M40" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N40" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O40" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P40" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q40" t="n">
         <v>19.79181345154409</v>
@@ -34077,7 +34077,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S40" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T40" t="n">
         <v>1.00989602890302</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H41" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I41" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J41" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K41" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L41" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M41" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N41" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O41" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P41" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q41" t="n">
         <v>56.90154600460399</v>
@@ -34156,13 +34156,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S41" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T41" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H42" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I42" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K42" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L42" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M42" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N42" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O42" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P42" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R42" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S42" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T42" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H43" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I43" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J43" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L43" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M43" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N43" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O43" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P43" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q43" t="n">
         <v>19.79181345154409</v>
@@ -34314,7 +34314,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S43" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T43" t="n">
         <v>1.00989602890302</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191207</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545696</v>
       </c>
       <c r="I44" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J44" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401751</v>
       </c>
       <c r="K44" t="n">
-        <v>67.02633406334591</v>
+        <v>67.0263340633459</v>
       </c>
       <c r="L44" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946471</v>
       </c>
       <c r="M44" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921236</v>
       </c>
       <c r="N44" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479658</v>
       </c>
       <c r="O44" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091082</v>
       </c>
       <c r="P44" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240751</v>
       </c>
       <c r="Q44" t="n">
         <v>56.90154600460399</v>
@@ -34393,13 +34393,13 @@
         <v>33.0992046783735</v>
       </c>
       <c r="S44" t="n">
-        <v>12.00721352529698</v>
+        <v>12.00721352529697</v>
       </c>
       <c r="T44" t="n">
         <v>2.306596915281952</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552964</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274429</v>
       </c>
       <c r="H45" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043989</v>
       </c>
       <c r="I45" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243102</v>
       </c>
       <c r="J45" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597346</v>
       </c>
       <c r="K45" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741214</v>
       </c>
       <c r="L45" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023055</v>
       </c>
       <c r="M45" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272534</v>
       </c>
       <c r="N45" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337079</v>
       </c>
       <c r="O45" t="n">
-        <v>67.07775236198377</v>
+        <v>67.07775236198376</v>
       </c>
       <c r="P45" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960181</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.98781323839431</v>
+        <v>35.9878132383943</v>
       </c>
       <c r="R45" t="n">
         <v>17.50424286018107</v>
       </c>
       <c r="S45" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255351</v>
       </c>
       <c r="T45" t="n">
-        <v>1.136366147817632</v>
+        <v>1.136366147817631</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01854786965970021</v>
+        <v>0.0185478696597002</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2363586450624091</v>
+        <v>0.236358645062409</v>
       </c>
       <c r="H46" t="n">
         <v>2.101443226100329</v>
       </c>
       <c r="I46" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513175</v>
       </c>
       <c r="J46" t="n">
         <v>16.71055620591232</v>
       </c>
       <c r="K46" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634169</v>
       </c>
       <c r="L46" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591489</v>
       </c>
       <c r="M46" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101016</v>
       </c>
       <c r="N46" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941394</v>
       </c>
       <c r="O46" t="n">
         <v>33.40822012209397</v>
       </c>
       <c r="P46" t="n">
-        <v>28.58650376282081</v>
+        <v>28.5865037628208</v>
       </c>
       <c r="Q46" t="n">
         <v>19.79181345154409</v>
@@ -34551,7 +34551,7 @@
         <v>10.62754416798795</v>
       </c>
       <c r="S46" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951253</v>
       </c>
       <c r="T46" t="n">
         <v>1.00989602890302</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.37179272051272</v>
+        <v>39.37179272051179</v>
       </c>
       <c r="K11" t="n">
-        <v>189.5499583685011</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6475028161954</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M11" t="n">
-        <v>335.4292240151672</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1829054065838</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4667021680213</v>
+        <v>260.4667021680215</v>
       </c>
       <c r="P11" t="n">
-        <v>184.9903918993616</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.96108866331651</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.583777064905977</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K12" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7975913304506</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1866119087573</v>
+        <v>16.26841600769359</v>
       </c>
       <c r="N12" t="n">
         <v>425.1947883666028</v>
       </c>
       <c r="O12" t="n">
-        <v>337.663226076449</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.05028678466561</v>
+        <v>50.0502867846658</v>
       </c>
       <c r="K13" t="n">
-        <v>134.8647429150406</v>
+        <v>134.8647429150394</v>
       </c>
       <c r="L13" t="n">
-        <v>194.7797901114564</v>
+        <v>194.7797901114566</v>
       </c>
       <c r="M13" t="n">
-        <v>209.4262754744509</v>
+        <v>209.4262754744512</v>
       </c>
       <c r="N13" t="n">
-        <v>212.544914010584</v>
+        <v>212.5449140105843</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1550036585972</v>
+        <v>190.1550036585975</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8871011680401</v>
+        <v>156.8871011680371</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20968908222814</v>
+        <v>62.20968908222834</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>325.1829054065838</v>
       </c>
       <c r="O14" t="n">
-        <v>260.4667021680213</v>
+        <v>255.7760061890792</v>
       </c>
       <c r="P14" t="n">
         <v>184.9903918993616</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.27039268437435</v>
+        <v>60.96108866331651</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L15" t="n">
-        <v>131.1569348498797</v>
+        <v>311.7975913304506</v>
       </c>
       <c r="M15" t="n">
         <v>417.1866119087573</v>
@@ -35741,10 +35741,10 @@
         <v>337.663226076449</v>
       </c>
       <c r="P15" t="n">
-        <v>254.4120421061644</v>
+        <v>5.583777064906128</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9859627498063</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.05028678466568</v>
+        <v>50.05028678466574</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8647429150406</v>
+        <v>134.8647429150407</v>
       </c>
       <c r="L16" t="n">
-        <v>194.7797901114564</v>
+        <v>194.7797901114565</v>
       </c>
       <c r="M16" t="n">
         <v>209.426275474451</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5449140105841</v>
+        <v>212.5449140105842</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1550036585973</v>
+        <v>190.1550036585974</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8871011680369</v>
+        <v>156.887101168037</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20968908222821</v>
+        <v>62.20968908222827</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K17" t="n">
-        <v>184.8592623895578</v>
+        <v>184.8592623895579</v>
       </c>
       <c r="L17" t="n">
         <v>287.6475028161956</v>
@@ -35893,7 +35893,7 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N17" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O17" t="n">
         <v>260.4667021680215</v>
@@ -35902,7 +35902,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L18" t="n">
-        <v>311.7975913304508</v>
+        <v>165.2914375355513</v>
       </c>
       <c r="M18" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N18" t="n">
         <v>425.1947883666028</v>
       </c>
       <c r="O18" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P18" t="n">
-        <v>191.7573483753994</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L19" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M19" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N19" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O19" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P19" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.0624886994551</v>
+        <v>39.37179272051179</v>
       </c>
       <c r="K20" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L20" t="n">
         <v>287.6475028161956</v>
@@ -36130,16 +36130,16 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N20" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O20" t="n">
         <v>260.4667021680215</v>
       </c>
       <c r="P20" t="n">
-        <v>180.2996959204186</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K21" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L21" t="n">
-        <v>311.7975913304508</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N21" t="n">
-        <v>24.2765924655388</v>
+        <v>336.0741837959897</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P21" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q21" t="n">
         <v>117.9859627498064</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L22" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M22" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N22" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P22" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.0624886994551</v>
+        <v>39.37179272051196</v>
       </c>
       <c r="K23" t="n">
         <v>189.5499583685012</v>
@@ -36370,13 +36370,13 @@
         <v>325.1829054065839</v>
       </c>
       <c r="O23" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P23" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.27039268437251</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L24" t="n">
         <v>311.7975913304508</v>
@@ -36446,7 +36446,7 @@
         <v>417.1866119087574</v>
       </c>
       <c r="N24" t="n">
-        <v>362.5400946358367</v>
+        <v>142.2625552153454</v>
       </c>
       <c r="O24" t="n">
         <v>337.6632260764491</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L25" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M25" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N25" t="n">
         <v>90.36633850405184</v>
       </c>
       <c r="O25" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P25" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>477.4961397006036</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2498210920203</v>
+        <v>467.2498210920202</v>
       </c>
       <c r="O26" t="n">
         <v>402.5336178534578</v>
@@ -36613,10 +36613,10 @@
         <v>327.057307584798</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0280043487529</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31529766293275</v>
+        <v>33.31529766293278</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.9386269635697</v>
+        <v>69.93862696356973</v>
       </c>
       <c r="K28" t="n">
-        <v>12.68616740850835</v>
+        <v>97.17264400882468</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6681302903605</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M28" t="n">
-        <v>229.3146156533551</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N28" t="n">
-        <v>90.36633850405184</v>
+        <v>232.4332541894882</v>
       </c>
       <c r="O28" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P28" t="n">
-        <v>119.1950022618213</v>
+        <v>176.775441346941</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113224</v>
+        <v>82.09802926113227</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>331.6168740539375</v>
       </c>
       <c r="L29" t="n">
-        <v>429.7144185016319</v>
+        <v>429.7144185016318</v>
       </c>
       <c r="M29" t="n">
         <v>477.4961397006036</v>
       </c>
       <c r="N29" t="n">
-        <v>467.2498210920202</v>
+        <v>467.2498210920203</v>
       </c>
       <c r="O29" t="n">
         <v>402.5336178534578</v>
@@ -36853,7 +36853,7 @@
         <v>203.0280043487529</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31529766293272</v>
+        <v>33.31529766293275</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.9386269635697</v>
       </c>
       <c r="K31" t="n">
-        <v>12.68616740850835</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L31" t="n">
-        <v>72.60121460492418</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M31" t="n">
-        <v>99.60588784636984</v>
+        <v>229.314615653355</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4332541894881</v>
+        <v>90.36633850405184</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0433438375013</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7754413469409</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.09802926113221</v>
+        <v>24.51759017601306</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>186.1294043848914</v>
       </c>
       <c r="K32" t="n">
-        <v>331.6168740539376</v>
+        <v>331.6168740539375</v>
       </c>
       <c r="L32" t="n">
-        <v>429.7144185016319</v>
+        <v>429.7144185016318</v>
       </c>
       <c r="M32" t="n">
         <v>477.4961397006036</v>
@@ -37081,7 +37081,7 @@
         <v>467.2498210920202</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5336178534578</v>
+        <v>402.5336178534587</v>
       </c>
       <c r="P32" t="n">
         <v>327.057307584798</v>
@@ -37227,25 +37227,25 @@
         <v>69.93862696356967</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7530830939446</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L34" t="n">
-        <v>214.6681302903605</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M34" t="n">
-        <v>229.314615653355</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N34" t="n">
-        <v>90.36633850405184</v>
+        <v>232.4332541894881</v>
       </c>
       <c r="O34" t="n">
-        <v>67.97642815206504</v>
+        <v>152.4629047523829</v>
       </c>
       <c r="P34" t="n">
-        <v>59.22611583751811</v>
+        <v>176.7754413469409</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.09802926113221</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K35" t="n">
         <v>189.5499583685012</v>
@@ -37318,13 +37318,13 @@
         <v>325.1829054065839</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P35" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.96108866331661</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>311.7975913304508</v>
+        <v>134.6629907729161</v>
       </c>
       <c r="M36" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N36" t="n">
-        <v>215.1408597549762</v>
+        <v>426.3794284225094</v>
       </c>
       <c r="O36" t="n">
         <v>337.6632260764491</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L37" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M37" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N37" t="n">
         <v>90.36633850405184</v>
       </c>
       <c r="O37" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P37" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K38" t="n">
         <v>189.5499583685012</v>
@@ -37555,13 +37555,13 @@
         <v>325.1829054065839</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P38" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.96108866331661</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K39" t="n">
         <v>186.1735713104939</v>
@@ -37628,10 +37628,10 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M39" t="n">
-        <v>53.87844004072884</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N39" t="n">
-        <v>426.3794284225094</v>
+        <v>146.9532511942884</v>
       </c>
       <c r="O39" t="n">
         <v>337.6632260764491</v>
@@ -37640,7 +37640,7 @@
         <v>254.4120421061644</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L40" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M40" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N40" t="n">
         <v>90.36633850405184</v>
       </c>
       <c r="O40" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P40" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K41" t="n">
-        <v>189.5499583685012</v>
+        <v>220.4097127331852</v>
       </c>
       <c r="L41" t="n">
         <v>287.6475028161956</v>
@@ -37792,16 +37792,16 @@
         <v>325.1829054065839</v>
       </c>
       <c r="O41" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P41" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.96108866331661</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R41" t="n">
-        <v>30.85975436468431</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>417.1866119087574</v>
       </c>
       <c r="N42" t="n">
-        <v>280.1045822296587</v>
+        <v>398.0905449794651</v>
       </c>
       <c r="O42" t="n">
         <v>337.6632260764491</v>
@@ -37877,7 +37877,7 @@
         <v>254.4120421061644</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L43" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M43" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N43" t="n">
         <v>90.36633850405184</v>
       </c>
       <c r="O43" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P43" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K44" t="n">
         <v>189.5499583685012</v>
@@ -38029,19 +38029,19 @@
         <v>325.1829054065839</v>
       </c>
       <c r="O44" t="n">
-        <v>260.4667021680215</v>
+        <v>260.4667021680214</v>
       </c>
       <c r="P44" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.96108866331661</v>
+        <v>60.9610886633166</v>
       </c>
       <c r="R44" t="n">
-        <v>30.85975436468431</v>
+        <v>4.058972281788069</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.80078208289615</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.10396810999862</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7975913304508</v>
+        <v>55.4375060125676</v>
       </c>
       <c r="M45" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N45" t="n">
-        <v>398.0905449794651</v>
+        <v>434.1730908768556</v>
       </c>
       <c r="O45" t="n">
         <v>337.6632260764491</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850834</v>
       </c>
       <c r="L46" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492417</v>
       </c>
       <c r="M46" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791872</v>
       </c>
       <c r="N46" t="n">
         <v>90.36633850405184</v>
       </c>
       <c r="O46" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206503</v>
       </c>
       <c r="P46" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
